--- a/Source/Upload/Confirm Sup 01.2016.xlsx
+++ b/Source/Upload/Confirm Sup 01.2016.xlsx
@@ -9,16 +9,17 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Bù trừ tháng trước" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$T$471</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3314" uniqueCount="968">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3813" uniqueCount="968">
   <si>
     <t>LE LAI 1</t>
   </si>
@@ -3036,7 +3037,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3093,6 +3094,20 @@
     <xf numFmtId="14" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3399,8 +3414,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T471"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A445" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D462" sqref="D462"/>
+    <sheetView tabSelected="1" topLeftCell="A297" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C326" sqref="C326"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3408,7 +3423,7 @@
     <col min="1" max="1" width="9.7109375" style="4" customWidth="1"/>
     <col min="2" max="2" width="44.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.140625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" style="46" customWidth="1"/>
     <col min="5" max="5" width="27.140625" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.7109375" style="4" customWidth="1"/>
     <col min="7" max="7" width="13.85546875" style="4" customWidth="1"/>
@@ -3430,7 +3445,7 @@
       <c r="C1" s="20" t="s">
         <v>465</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="38" t="s">
         <v>466</v>
       </c>
       <c r="E1" s="20" t="s">
@@ -3469,8 +3484,8 @@
       <c r="C2" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="34">
-        <v>218</v>
+      <c r="D2" s="39" t="s">
+        <v>476</v>
       </c>
       <c r="E2" s="34" t="s">
         <v>1</v>
@@ -3498,8 +3513,8 @@
       <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="2">
-        <v>229</v>
+      <c r="D3" s="40" t="s">
+        <v>480</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>5</v>
@@ -3527,8 +3542,8 @@
       <c r="C4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="2">
-        <v>202</v>
+      <c r="D4" s="40" t="s">
+        <v>483</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>6</v>
@@ -3556,8 +3571,8 @@
       <c r="C5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="2">
-        <v>136</v>
+      <c r="D5" s="40" t="s">
+        <v>485</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>9</v>
@@ -3585,8 +3600,8 @@
       <c r="C6" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="34">
-        <v>218</v>
+      <c r="D6" s="39" t="s">
+        <v>476</v>
       </c>
       <c r="E6" s="34" t="s">
         <v>13</v>
@@ -3614,8 +3629,8 @@
       <c r="C7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="2">
-        <v>218</v>
+      <c r="D7" s="40" t="s">
+        <v>476</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>14</v>
@@ -3644,8 +3659,8 @@
       <c r="C8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="2">
-        <v>41</v>
+      <c r="D8" s="40" t="s">
+        <v>491</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>15</v>
@@ -3674,8 +3689,8 @@
       <c r="C9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="2">
-        <v>51</v>
+      <c r="D9" s="40" t="s">
+        <v>490</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>17</v>
@@ -3685,6 +3700,9 @@
       </c>
       <c r="G9" s="2" t="s">
         <v>965</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>493</v>
       </c>
       <c r="I9" s="7" t="s">
         <v>493</v>
@@ -3703,8 +3721,8 @@
       <c r="C10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="2">
-        <v>209</v>
+      <c r="D10" s="40" t="s">
+        <v>495</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>18</v>
@@ -3732,8 +3750,8 @@
       <c r="C11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="2">
-        <v>71</v>
+      <c r="D11" s="40" t="s">
+        <v>497</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>19</v>
@@ -3761,8 +3779,8 @@
       <c r="C12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="2">
-        <v>218</v>
+      <c r="D12" s="40" t="s">
+        <v>476</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>20</v>
@@ -3791,8 +3809,8 @@
       <c r="C13" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="2">
-        <v>202</v>
+      <c r="D13" s="40" t="s">
+        <v>483</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>21</v>
@@ -3820,8 +3838,8 @@
       <c r="C14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="2">
-        <v>63</v>
+      <c r="D14" s="40" t="s">
+        <v>498</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>23</v>
@@ -3832,7 +3850,9 @@
       <c r="G14" s="2" t="s">
         <v>965</v>
       </c>
-      <c r="H14" s="7"/>
+      <c r="H14" s="7" t="s">
+        <v>493</v>
+      </c>
       <c r="I14" s="7" t="s">
         <v>493</v>
       </c>
@@ -3850,8 +3870,8 @@
       <c r="C15" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="2">
-        <v>51</v>
+      <c r="D15" s="40" t="s">
+        <v>490</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>24</v>
@@ -3862,7 +3882,9 @@
       <c r="G15" s="2" t="s">
         <v>965</v>
       </c>
-      <c r="H15" s="7"/>
+      <c r="H15" s="7" t="s">
+        <v>493</v>
+      </c>
       <c r="I15" s="7" t="s">
         <v>493</v>
       </c>
@@ -3880,8 +3902,8 @@
       <c r="C16" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="2">
-        <v>234</v>
+      <c r="D16" s="40" t="s">
+        <v>502</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>27</v>
@@ -3909,8 +3931,8 @@
       <c r="C17" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="2">
-        <v>51</v>
+      <c r="D17" s="40" t="s">
+        <v>490</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>28</v>
@@ -3921,7 +3943,9 @@
       <c r="G17" s="2" t="s">
         <v>965</v>
       </c>
-      <c r="H17" s="7"/>
+      <c r="H17" s="7" t="s">
+        <v>493</v>
+      </c>
       <c r="I17" s="7" t="s">
         <v>493</v>
       </c>
@@ -3939,8 +3963,8 @@
       <c r="C18" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="2">
-        <v>179</v>
+      <c r="D18" s="40" t="s">
+        <v>505</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>29</v>
@@ -3951,7 +3975,9 @@
       <c r="G18" s="2" t="s">
         <v>965</v>
       </c>
-      <c r="H18" s="7"/>
+      <c r="H18" s="7" t="s">
+        <v>493</v>
+      </c>
       <c r="I18" s="7" t="s">
         <v>493</v>
       </c>
@@ -3969,8 +3995,8 @@
       <c r="C19" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="2">
-        <v>41</v>
+      <c r="D19" s="40" t="s">
+        <v>491</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>30</v>
@@ -3999,8 +4025,8 @@
       <c r="C20" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="D20" s="34">
-        <v>41</v>
+      <c r="D20" s="39" t="s">
+        <v>491</v>
       </c>
       <c r="E20" s="34" t="s">
         <v>31</v>
@@ -4028,8 +4054,8 @@
       <c r="C21" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="2">
-        <v>179</v>
+      <c r="D21" s="40" t="s">
+        <v>505</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>35</v>
@@ -4040,7 +4066,9 @@
       <c r="G21" s="2" t="s">
         <v>965</v>
       </c>
-      <c r="H21" s="7"/>
+      <c r="H21" s="7" t="s">
+        <v>493</v>
+      </c>
       <c r="I21" s="7" t="s">
         <v>493</v>
       </c>
@@ -4058,8 +4086,8 @@
       <c r="C22" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D22" s="2">
-        <v>418</v>
+      <c r="D22" s="40" t="s">
+        <v>509</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>36</v>
@@ -4087,8 +4115,8 @@
       <c r="C23" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D23" s="2">
-        <v>57</v>
+      <c r="D23" s="40" t="s">
+        <v>492</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>37</v>
@@ -4116,8 +4144,8 @@
       <c r="C24" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D24" s="2">
-        <v>41</v>
+      <c r="D24" s="40" t="s">
+        <v>491</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>38</v>
@@ -4146,8 +4174,8 @@
       <c r="C25" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D25" s="2">
-        <v>44</v>
+      <c r="D25" s="40" t="s">
+        <v>489</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>40</v>
@@ -4158,7 +4186,9 @@
       <c r="G25" s="2" t="s">
         <v>965</v>
       </c>
-      <c r="H25" s="7"/>
+      <c r="H25" s="7" t="s">
+        <v>493</v>
+      </c>
       <c r="I25" s="7" t="s">
         <v>493</v>
       </c>
@@ -4176,8 +4206,8 @@
       <c r="C26" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D26" s="2">
-        <v>63</v>
+      <c r="D26" s="40" t="s">
+        <v>498</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>41</v>
@@ -4188,7 +4218,9 @@
       <c r="G26" s="2" t="s">
         <v>965</v>
       </c>
-      <c r="H26" s="7"/>
+      <c r="H26" s="7" t="s">
+        <v>493</v>
+      </c>
       <c r="I26" s="7" t="s">
         <v>493</v>
       </c>
@@ -4206,8 +4238,8 @@
       <c r="C27" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D27" s="2">
-        <v>208</v>
+      <c r="D27" s="40" t="s">
+        <v>513</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>42</v>
@@ -4235,8 +4267,8 @@
       <c r="C28" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D28" s="2">
-        <v>44</v>
+      <c r="D28" s="40" t="s">
+        <v>489</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>43</v>
@@ -4247,7 +4279,9 @@
       <c r="G28" s="2" t="s">
         <v>965</v>
       </c>
-      <c r="H28" s="7"/>
+      <c r="H28" s="7" t="s">
+        <v>493</v>
+      </c>
       <c r="I28" s="7" t="s">
         <v>493</v>
       </c>
@@ -4265,8 +4299,8 @@
       <c r="C29" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D29" s="2">
-        <v>51</v>
+      <c r="D29" s="40" t="s">
+        <v>490</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>44</v>
@@ -4277,7 +4311,9 @@
       <c r="G29" s="2" t="s">
         <v>965</v>
       </c>
-      <c r="H29" s="7"/>
+      <c r="H29" s="7" t="s">
+        <v>493</v>
+      </c>
       <c r="I29" s="7" t="s">
         <v>493</v>
       </c>
@@ -4295,8 +4331,8 @@
       <c r="C30" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D30" s="2">
-        <v>146</v>
+      <c r="D30" s="40" t="s">
+        <v>506</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>47</v>
@@ -4307,7 +4343,9 @@
       <c r="G30" s="2" t="s">
         <v>965</v>
       </c>
-      <c r="H30" s="7"/>
+      <c r="H30" s="7" t="s">
+        <v>493</v>
+      </c>
       <c r="I30" s="7" t="s">
         <v>493</v>
       </c>
@@ -4325,8 +4363,8 @@
       <c r="C31" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D31" s="2">
-        <v>202</v>
+      <c r="D31" s="40" t="s">
+        <v>483</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>50</v>
@@ -4354,8 +4392,8 @@
       <c r="C32" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D32" s="2">
-        <v>63</v>
+      <c r="D32" s="40" t="s">
+        <v>498</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>51</v>
@@ -4366,7 +4404,9 @@
       <c r="G32" s="2" t="s">
         <v>965</v>
       </c>
-      <c r="H32" s="7"/>
+      <c r="H32" s="7" t="s">
+        <v>493</v>
+      </c>
       <c r="I32" s="7" t="s">
         <v>493</v>
       </c>
@@ -4384,8 +4424,8 @@
       <c r="C33" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D33" s="2">
-        <v>44</v>
+      <c r="D33" s="40" t="s">
+        <v>489</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>52</v>
@@ -4396,7 +4436,9 @@
       <c r="G33" s="2" t="s">
         <v>965</v>
       </c>
-      <c r="H33" s="7"/>
+      <c r="H33" s="7" t="s">
+        <v>493</v>
+      </c>
       <c r="I33" s="7" t="s">
         <v>493</v>
       </c>
@@ -4414,8 +4456,8 @@
       <c r="C34" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D34" s="2">
-        <v>8</v>
+      <c r="D34" s="40" t="s">
+        <v>475</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>55</v>
@@ -4426,7 +4468,9 @@
       <c r="G34" s="2" t="s">
         <v>965</v>
       </c>
-      <c r="H34" s="7"/>
+      <c r="H34" s="7" t="s">
+        <v>493</v>
+      </c>
       <c r="I34" s="7" t="s">
         <v>493</v>
       </c>
@@ -4444,8 +4488,8 @@
       <c r="C35" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D35" s="2">
-        <v>475</v>
+      <c r="D35" s="40" t="s">
+        <v>518</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>57</v>
@@ -4473,8 +4517,8 @@
       <c r="C36" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="D36" s="34">
-        <v>218</v>
+      <c r="D36" s="39" t="s">
+        <v>476</v>
       </c>
       <c r="E36" s="34" t="s">
         <v>60</v>
@@ -4502,8 +4546,8 @@
       <c r="C37" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D37" s="2">
-        <v>44</v>
+      <c r="D37" s="40" t="s">
+        <v>489</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>61</v>
@@ -4514,7 +4558,9 @@
       <c r="G37" s="2" t="s">
         <v>965</v>
       </c>
-      <c r="H37" s="7"/>
+      <c r="H37" s="7" t="s">
+        <v>493</v>
+      </c>
       <c r="I37" s="7" t="s">
         <v>493</v>
       </c>
@@ -4532,8 +4578,8 @@
       <c r="C38" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D38" s="2">
-        <v>63</v>
+      <c r="D38" s="40" t="s">
+        <v>498</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>64</v>
@@ -4544,7 +4590,9 @@
       <c r="G38" s="2" t="s">
         <v>965</v>
       </c>
-      <c r="H38" s="7"/>
+      <c r="H38" s="7" t="s">
+        <v>493</v>
+      </c>
       <c r="I38" s="7" t="s">
         <v>493</v>
       </c>
@@ -4562,8 +4610,8 @@
       <c r="C39" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D39" s="2">
-        <v>287</v>
+      <c r="D39" s="40" t="s">
+        <v>520</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>65</v>
@@ -4591,8 +4639,8 @@
       <c r="C40" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D40" s="2">
-        <v>44</v>
+      <c r="D40" s="40" t="s">
+        <v>489</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>68</v>
@@ -4603,7 +4651,9 @@
       <c r="G40" s="2" t="s">
         <v>965</v>
       </c>
-      <c r="H40" s="7"/>
+      <c r="H40" s="7" t="s">
+        <v>493</v>
+      </c>
       <c r="I40" s="7" t="s">
         <v>493</v>
       </c>
@@ -4621,8 +4671,8 @@
       <c r="C41" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D41" s="2">
-        <v>208</v>
+      <c r="D41" s="40" t="s">
+        <v>513</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>70</v>
@@ -4650,8 +4700,8 @@
       <c r="C42" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D42" s="2">
-        <v>201</v>
+      <c r="D42" s="40" t="s">
+        <v>511</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>71</v>
@@ -4679,8 +4729,8 @@
       <c r="C43" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D43" s="2">
-        <v>201</v>
+      <c r="D43" s="40" t="s">
+        <v>511</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>72</v>
@@ -4708,8 +4758,8 @@
       <c r="C44" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D44" s="2">
-        <v>425</v>
+      <c r="D44" s="40" t="s">
+        <v>528</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>73</v>
@@ -4737,8 +4787,8 @@
       <c r="C45" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D45" s="2">
-        <v>443</v>
+      <c r="D45" s="40" t="s">
+        <v>530</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>74</v>
@@ -4766,8 +4816,8 @@
       <c r="C46" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D46" s="2">
-        <v>135</v>
+      <c r="D46" s="40" t="s">
+        <v>504</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>75</v>
@@ -4795,8 +4845,8 @@
       <c r="C47" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D47" s="2">
-        <v>162</v>
+      <c r="D47" s="40" t="s">
+        <v>507</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>25</v>
@@ -4824,8 +4874,8 @@
       <c r="C48" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D48" s="2">
-        <v>162</v>
+      <c r="D48" s="40" t="s">
+        <v>507</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>76</v>
@@ -4853,8 +4903,8 @@
       <c r="C49" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D49" s="2">
-        <v>430</v>
+      <c r="D49" s="40" t="s">
+        <v>535</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>77</v>
@@ -4882,8 +4932,8 @@
       <c r="C50" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D50" s="2">
-        <v>71</v>
+      <c r="D50" s="40" t="s">
+        <v>497</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>79</v>
@@ -4911,8 +4961,8 @@
       <c r="C51" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D51" s="2">
-        <v>216</v>
+      <c r="D51" s="40" t="s">
+        <v>514</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>81</v>
@@ -4940,8 +4990,8 @@
       <c r="C52" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D52" s="2">
-        <v>419</v>
+      <c r="D52" s="40" t="s">
+        <v>539</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>84</v>
@@ -4952,7 +5002,9 @@
       <c r="G52" s="2" t="s">
         <v>965</v>
       </c>
-      <c r="H52" s="7"/>
+      <c r="H52" s="7" t="s">
+        <v>493</v>
+      </c>
       <c r="I52" s="7" t="s">
         <v>493</v>
       </c>
@@ -4970,8 +5022,8 @@
       <c r="C53" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D53" s="2">
-        <v>988</v>
+      <c r="D53" s="40" t="s">
+        <v>541</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>85</v>
@@ -4999,8 +5051,8 @@
       <c r="C54" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D54" s="2">
-        <v>71</v>
+      <c r="D54" s="40" t="s">
+        <v>497</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>86</v>
@@ -5028,8 +5080,8 @@
       <c r="C55" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D55" s="2">
-        <v>71</v>
+      <c r="D55" s="40" t="s">
+        <v>497</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>87</v>
@@ -5057,8 +5109,8 @@
       <c r="C56" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D56" s="2">
-        <v>162</v>
+      <c r="D56" s="40" t="s">
+        <v>507</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>28</v>
@@ -5086,8 +5138,8 @@
       <c r="C57" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D57" s="2">
-        <v>136</v>
+      <c r="D57" s="40" t="s">
+        <v>485</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>89</v>
@@ -5115,8 +5167,8 @@
       <c r="C58" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D58" s="2">
-        <v>419</v>
+      <c r="D58" s="40" t="s">
+        <v>539</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>90</v>
@@ -5144,8 +5196,8 @@
       <c r="C59" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="D59" s="29">
-        <v>418</v>
+      <c r="D59" s="41" t="s">
+        <v>509</v>
       </c>
       <c r="E59" s="29" t="s">
         <v>91</v>
@@ -5155,6 +5207,9 @@
       </c>
       <c r="G59" s="29" t="s">
         <v>965</v>
+      </c>
+      <c r="H59" s="7" t="s">
+        <v>493</v>
       </c>
       <c r="I59" s="11" t="s">
         <v>493</v>
@@ -5173,8 +5228,8 @@
       <c r="C60" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D60" s="2">
-        <v>418</v>
+      <c r="D60" s="40" t="s">
+        <v>509</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>92</v>
@@ -5202,8 +5257,8 @@
       <c r="C61" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D61" s="2">
-        <v>418</v>
+      <c r="D61" s="40" t="s">
+        <v>509</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>93</v>
@@ -5231,8 +5286,8 @@
       <c r="C62" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D62" s="2">
-        <v>71</v>
+      <c r="D62" s="40" t="s">
+        <v>497</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>94</v>
@@ -5260,8 +5315,8 @@
       <c r="C63" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D63" s="2">
-        <v>418</v>
+      <c r="D63" s="40" t="s">
+        <v>509</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>95</v>
@@ -5289,8 +5344,8 @@
       <c r="C64" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D64" s="2">
-        <v>418</v>
+      <c r="D64" s="40" t="s">
+        <v>509</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>96</v>
@@ -5318,8 +5373,8 @@
       <c r="C65" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D65" s="2">
-        <v>430</v>
+      <c r="D65" s="40" t="s">
+        <v>535</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>97</v>
@@ -5347,8 +5402,8 @@
       <c r="C66" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D66" s="2">
-        <v>136</v>
+      <c r="D66" s="40" t="s">
+        <v>485</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>98</v>
@@ -5359,7 +5414,9 @@
       <c r="G66" s="2" t="s">
         <v>965</v>
       </c>
-      <c r="H66" s="7"/>
+      <c r="H66" s="7" t="s">
+        <v>493</v>
+      </c>
       <c r="I66" s="7" t="s">
         <v>493</v>
       </c>
@@ -5377,8 +5434,8 @@
       <c r="C67" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D67" s="2">
-        <v>136</v>
+      <c r="D67" s="40" t="s">
+        <v>485</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>99</v>
@@ -5389,7 +5446,9 @@
       <c r="G67" s="2" t="s">
         <v>965</v>
       </c>
-      <c r="H67" s="7"/>
+      <c r="H67" s="7" t="s">
+        <v>493</v>
+      </c>
       <c r="I67" s="7" t="s">
         <v>493</v>
       </c>
@@ -5407,8 +5466,8 @@
       <c r="C68" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="D68" s="29">
-        <v>57</v>
+      <c r="D68" s="41" t="s">
+        <v>492</v>
       </c>
       <c r="E68" s="29" t="s">
         <v>100</v>
@@ -5418,6 +5477,9 @@
       </c>
       <c r="G68" s="29" t="s">
         <v>965</v>
+      </c>
+      <c r="H68" s="7" t="s">
+        <v>493</v>
       </c>
       <c r="I68" s="11" t="s">
         <v>493</v>
@@ -5436,8 +5498,8 @@
       <c r="C69" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D69" s="2">
-        <v>425</v>
+      <c r="D69" s="40" t="s">
+        <v>528</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>101</v>
@@ -5465,8 +5527,8 @@
       <c r="C70" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="D70" s="32">
-        <v>57</v>
+      <c r="D70" s="42" t="s">
+        <v>492</v>
       </c>
       <c r="E70" s="32" t="s">
         <v>102</v>
@@ -5494,8 +5556,8 @@
       <c r="C71" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D71" s="2">
-        <v>146</v>
+      <c r="D71" s="40" t="s">
+        <v>506</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>103</v>
@@ -5506,7 +5568,9 @@
       <c r="G71" s="2" t="s">
         <v>965</v>
       </c>
-      <c r="H71" s="7"/>
+      <c r="H71" s="7" t="s">
+        <v>493</v>
+      </c>
       <c r="I71" s="7" t="s">
         <v>493</v>
       </c>
@@ -5524,8 +5588,8 @@
       <c r="C72" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D72" s="2">
-        <v>71</v>
+      <c r="D72" s="40" t="s">
+        <v>497</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>104</v>
@@ -5553,8 +5617,8 @@
       <c r="C73" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D73" s="2">
-        <v>57</v>
+      <c r="D73" s="40" t="s">
+        <v>492</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>105</v>
@@ -5582,8 +5646,8 @@
       <c r="C74" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D74" s="2">
-        <v>443</v>
+      <c r="D74" s="40" t="s">
+        <v>530</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>106</v>
@@ -5611,8 +5675,8 @@
       <c r="C75" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D75" s="2">
-        <v>51</v>
+      <c r="D75" s="40" t="s">
+        <v>490</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>107</v>
@@ -5623,7 +5687,9 @@
       <c r="G75" s="2" t="s">
         <v>965</v>
       </c>
-      <c r="H75" s="7"/>
+      <c r="H75" s="7" t="s">
+        <v>493</v>
+      </c>
       <c r="I75" s="7" t="s">
         <v>493</v>
       </c>
@@ -5641,8 +5707,8 @@
       <c r="C76" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D76" s="2">
-        <v>208</v>
+      <c r="D76" s="40" t="s">
+        <v>513</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>108</v>
@@ -5670,8 +5736,8 @@
       <c r="C77" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D77" s="2">
-        <v>234</v>
+      <c r="D77" s="40" t="s">
+        <v>502</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>109</v>
@@ -5699,8 +5765,8 @@
       <c r="C78" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D78" s="2">
-        <v>123</v>
+      <c r="D78" s="40" t="s">
+        <v>503</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>111</v>
@@ -5728,8 +5794,8 @@
       <c r="C79" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D79" s="2">
-        <v>71</v>
+      <c r="D79" s="40" t="s">
+        <v>497</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>112</v>
@@ -5757,8 +5823,8 @@
       <c r="C80" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D80" s="2">
-        <v>229</v>
+      <c r="D80" s="40" t="s">
+        <v>480</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>113</v>
@@ -5786,8 +5852,8 @@
       <c r="C81" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D81" s="2">
-        <v>42</v>
+      <c r="D81" s="40" t="s">
+        <v>488</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>114</v>
@@ -5798,7 +5864,9 @@
       <c r="G81" s="2" t="s">
         <v>965</v>
       </c>
-      <c r="H81" s="7"/>
+      <c r="H81" s="7" t="s">
+        <v>493</v>
+      </c>
       <c r="I81" s="7" t="s">
         <v>493</v>
       </c>
@@ -5816,8 +5884,8 @@
       <c r="C82" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D82" s="2">
-        <v>961</v>
+      <c r="D82" s="40" t="s">
+        <v>565</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>116</v>
@@ -5845,8 +5913,8 @@
       <c r="C83" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D83" s="2">
-        <v>162</v>
+      <c r="D83" s="40" t="s">
+        <v>507</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>118</v>
@@ -5874,8 +5942,8 @@
       <c r="C84" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D84" s="2">
-        <v>71</v>
+      <c r="D84" s="40" t="s">
+        <v>497</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>119</v>
@@ -5903,8 +5971,8 @@
       <c r="C85" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D85" s="2">
-        <v>419</v>
+      <c r="D85" s="40" t="s">
+        <v>539</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>120</v>
@@ -5932,8 +6000,8 @@
       <c r="C86" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D86" s="2">
-        <v>400</v>
+      <c r="D86" s="40" t="s">
+        <v>547</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>121</v>
@@ -5961,8 +6029,8 @@
       <c r="C87" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D87" s="2">
-        <v>475</v>
+      <c r="D87" s="40" t="s">
+        <v>518</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>124</v>
@@ -5990,8 +6058,8 @@
       <c r="C88" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D88" s="2">
-        <v>135</v>
+      <c r="D88" s="40" t="s">
+        <v>504</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>125</v>
@@ -6019,8 +6087,8 @@
       <c r="C89" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D89" s="2">
-        <v>277</v>
+      <c r="D89" s="40" t="s">
+        <v>516</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>127</v>
@@ -6048,8 +6116,8 @@
       <c r="C90" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D90" s="2">
-        <v>8</v>
+      <c r="D90" s="40" t="s">
+        <v>475</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>128</v>
@@ -6060,7 +6128,9 @@
       <c r="G90" s="2" t="s">
         <v>965</v>
       </c>
-      <c r="H90" s="7"/>
+      <c r="H90" s="7" t="s">
+        <v>493</v>
+      </c>
       <c r="I90" s="7" t="s">
         <v>493</v>
       </c>
@@ -6078,8 +6148,8 @@
       <c r="C91" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D91" s="2">
-        <v>208</v>
+      <c r="D91" s="40" t="s">
+        <v>513</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>129</v>
@@ -6107,8 +6177,8 @@
       <c r="C92" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D92" s="2">
-        <v>201</v>
+      <c r="D92" s="40" t="s">
+        <v>511</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>130</v>
@@ -6136,8 +6206,8 @@
       <c r="C93" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D93" s="2">
-        <v>419</v>
+      <c r="D93" s="40" t="s">
+        <v>539</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>132</v>
@@ -6165,8 +6235,8 @@
       <c r="C94" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D94" s="2">
-        <v>162</v>
+      <c r="D94" s="40" t="s">
+        <v>507</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>133</v>
@@ -6194,8 +6264,8 @@
       <c r="C95" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D95" s="2">
-        <v>201</v>
+      <c r="D95" s="40" t="s">
+        <v>511</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>134</v>
@@ -6223,8 +6293,8 @@
       <c r="C96" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D96" s="2">
-        <v>234</v>
+      <c r="D96" s="40" t="s">
+        <v>502</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>135</v>
@@ -6252,8 +6322,8 @@
       <c r="C97" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D97" s="2">
-        <v>418</v>
+      <c r="D97" s="40" t="s">
+        <v>509</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>136</v>
@@ -6281,8 +6351,8 @@
       <c r="C98" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D98" s="2">
-        <v>419</v>
+      <c r="D98" s="40" t="s">
+        <v>539</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>88</v>
@@ -6310,8 +6380,8 @@
       <c r="C99" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D99" s="2">
-        <v>216</v>
+      <c r="D99" s="40" t="s">
+        <v>514</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>117</v>
@@ -6339,8 +6409,8 @@
       <c r="C100" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D100" s="2">
-        <v>475</v>
+      <c r="D100" s="40" t="s">
+        <v>518</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>137</v>
@@ -6368,8 +6438,8 @@
       <c r="C101" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D101" s="2">
-        <v>934</v>
+      <c r="D101" s="40" t="s">
+        <v>616</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>138</v>
@@ -6397,8 +6467,8 @@
       <c r="C102" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D102" s="2">
-        <v>283</v>
+      <c r="D102" s="40" t="s">
+        <v>519</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>139</v>
@@ -6409,7 +6479,9 @@
       <c r="G102" s="2" t="s">
         <v>965</v>
       </c>
-      <c r="H102" s="7"/>
+      <c r="H102" s="7" t="s">
+        <v>493</v>
+      </c>
       <c r="I102" s="4" t="s">
         <v>493</v>
       </c>
@@ -6427,8 +6499,8 @@
       <c r="C103" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D103" s="2">
-        <v>591</v>
+      <c r="D103" s="40" t="s">
+        <v>573</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>140</v>
@@ -6456,8 +6528,8 @@
       <c r="C104" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D104" s="2">
-        <v>162</v>
+      <c r="D104" s="40" t="s">
+        <v>507</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>141</v>
@@ -6485,8 +6557,8 @@
       <c r="C105" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D105" s="2">
-        <v>425</v>
+      <c r="D105" s="40" t="s">
+        <v>528</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>142</v>
@@ -6514,8 +6586,8 @@
       <c r="C106" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D106" s="2">
-        <v>934</v>
+      <c r="D106" s="40" t="s">
+        <v>616</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>144</v>
@@ -6543,8 +6615,8 @@
       <c r="C107" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D107" s="2">
-        <v>201</v>
+      <c r="D107" s="40" t="s">
+        <v>511</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>145</v>
@@ -6572,8 +6644,8 @@
       <c r="C108" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D108" s="2">
-        <v>400</v>
+      <c r="D108" s="40" t="s">
+        <v>547</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>146</v>
@@ -6601,8 +6673,8 @@
       <c r="C109" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D109" s="2">
-        <v>216</v>
+      <c r="D109" s="40" t="s">
+        <v>514</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>147</v>
@@ -6630,8 +6702,8 @@
       <c r="C110" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D110" s="2">
-        <v>418</v>
+      <c r="D110" s="40" t="s">
+        <v>509</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>148</v>
@@ -6659,8 +6731,8 @@
       <c r="C111" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D111" s="2">
-        <v>57</v>
+      <c r="D111" s="40" t="s">
+        <v>492</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>32</v>
@@ -6688,8 +6760,8 @@
       <c r="C112" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D112" s="2">
-        <v>162</v>
+      <c r="D112" s="40" t="s">
+        <v>507</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>149</v>
@@ -6717,8 +6789,8 @@
       <c r="C113" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D113" s="2">
-        <v>135</v>
+      <c r="D113" s="40" t="s">
+        <v>504</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>80</v>
@@ -6746,8 +6818,8 @@
       <c r="C114" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D114" s="2">
-        <v>201</v>
+      <c r="D114" s="40" t="s">
+        <v>511</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>151</v>
@@ -6775,8 +6847,8 @@
       <c r="C115" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D115" s="2">
-        <v>69</v>
+      <c r="D115" s="40" t="s">
+        <v>500</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>152</v>
@@ -6804,8 +6876,8 @@
       <c r="C116" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D116" s="2">
-        <v>202</v>
+      <c r="D116" s="40" t="s">
+        <v>483</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>153</v>
@@ -6833,8 +6905,8 @@
       <c r="C117" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D117" s="2">
-        <v>42</v>
+      <c r="D117" s="40" t="s">
+        <v>488</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>154</v>
@@ -6845,7 +6917,9 @@
       <c r="G117" s="2" t="s">
         <v>965</v>
       </c>
-      <c r="H117" s="7"/>
+      <c r="H117" s="7" t="s">
+        <v>493</v>
+      </c>
       <c r="I117" s="7" t="s">
         <v>493</v>
       </c>
@@ -6863,8 +6937,8 @@
       <c r="C118" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D118" s="2">
-        <v>277</v>
+      <c r="D118" s="40" t="s">
+        <v>516</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>156</v>
@@ -6892,8 +6966,8 @@
       <c r="C119" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D119" s="2">
-        <v>277</v>
+      <c r="D119" s="40" t="s">
+        <v>516</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>158</v>
@@ -6921,8 +6995,8 @@
       <c r="C120" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D120" s="2">
-        <v>1002</v>
+      <c r="D120" s="40" t="s">
+        <v>604</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>69</v>
@@ -6950,8 +7024,8 @@
       <c r="C121" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D121" s="2">
-        <v>287</v>
+      <c r="D121" s="40" t="s">
+        <v>520</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>34</v>
@@ -6979,8 +7053,8 @@
       <c r="C122" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D122" s="2">
-        <v>234</v>
+      <c r="D122" s="40" t="s">
+        <v>502</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>160</v>
@@ -7008,8 +7082,8 @@
       <c r="C123" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D123" s="2">
-        <v>208</v>
+      <c r="D123" s="40" t="s">
+        <v>513</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>161</v>
@@ -7037,8 +7111,8 @@
       <c r="C124" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D124" s="2">
-        <v>57</v>
+      <c r="D124" s="40" t="s">
+        <v>492</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>48</v>
@@ -7066,8 +7140,8 @@
       <c r="C125" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D125" s="2">
-        <v>443</v>
+      <c r="D125" s="40" t="s">
+        <v>530</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>162</v>
@@ -7095,8 +7169,8 @@
       <c r="C126" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D126" s="2">
-        <v>305</v>
+      <c r="D126" s="40" t="s">
+        <v>523</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>163</v>
@@ -7124,8 +7198,8 @@
       <c r="C127" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D127" s="2">
-        <v>400</v>
+      <c r="D127" s="40" t="s">
+        <v>547</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>164</v>
@@ -7153,8 +7227,8 @@
       <c r="C128" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D128" s="2">
-        <v>425</v>
+      <c r="D128" s="40" t="s">
+        <v>528</v>
       </c>
       <c r="E128" s="2" t="s">
         <v>167</v>
@@ -7182,8 +7256,8 @@
       <c r="C129" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D129" s="2">
-        <v>1181</v>
+      <c r="D129" s="40" t="s">
+        <v>614</v>
       </c>
       <c r="E129" s="2" t="s">
         <v>168</v>
@@ -7211,8 +7285,8 @@
       <c r="C130" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D130" s="2">
-        <v>57</v>
+      <c r="D130" s="40" t="s">
+        <v>492</v>
       </c>
       <c r="E130" s="2" t="s">
         <v>169</v>
@@ -7240,8 +7314,8 @@
       <c r="C131" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D131" s="2">
-        <v>283</v>
+      <c r="D131" s="40" t="s">
+        <v>519</v>
       </c>
       <c r="E131" s="2" t="s">
         <v>171</v>
@@ -7252,7 +7326,9 @@
       <c r="G131" s="2" t="s">
         <v>965</v>
       </c>
-      <c r="H131" s="7"/>
+      <c r="H131" s="7" t="s">
+        <v>493</v>
+      </c>
       <c r="I131" s="4" t="s">
         <v>493</v>
       </c>
@@ -7270,8 +7346,8 @@
       <c r="C132" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="D132" s="32">
-        <v>443</v>
+      <c r="D132" s="42" t="s">
+        <v>530</v>
       </c>
       <c r="E132" s="32" t="s">
         <v>172</v>
@@ -7299,8 +7375,8 @@
       <c r="C133" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D133" s="2">
-        <v>591</v>
+      <c r="D133" s="40" t="s">
+        <v>573</v>
       </c>
       <c r="E133" s="2" t="s">
         <v>174</v>
@@ -7328,8 +7404,8 @@
       <c r="C134" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D134" s="2">
-        <v>1038</v>
+      <c r="D134" s="40" t="s">
+        <v>619</v>
       </c>
       <c r="E134" s="2" t="s">
         <v>175</v>
@@ -7340,7 +7416,9 @@
       <c r="G134" s="2" t="s">
         <v>965</v>
       </c>
-      <c r="H134" s="7"/>
+      <c r="H134" s="7" t="s">
+        <v>493</v>
+      </c>
       <c r="I134" s="7" t="s">
         <v>493</v>
       </c>
@@ -7358,8 +7436,8 @@
       <c r="C135" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D135" s="2">
-        <v>934</v>
+      <c r="D135" s="40" t="s">
+        <v>616</v>
       </c>
       <c r="E135" s="2" t="s">
         <v>177</v>
@@ -7387,8 +7465,8 @@
       <c r="C136" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D136" s="2">
-        <v>209</v>
+      <c r="D136" s="40" t="s">
+        <v>495</v>
       </c>
       <c r="E136" s="2" t="s">
         <v>178</v>
@@ -7416,8 +7494,8 @@
       <c r="C137" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D137" s="2">
-        <v>136</v>
+      <c r="D137" s="40" t="s">
+        <v>485</v>
       </c>
       <c r="E137" s="2" t="s">
         <v>179</v>
@@ -7428,7 +7506,9 @@
       <c r="G137" s="2" t="s">
         <v>965</v>
       </c>
-      <c r="H137" s="7"/>
+      <c r="H137" s="7" t="s">
+        <v>493</v>
+      </c>
       <c r="I137" s="7" t="s">
         <v>493</v>
       </c>
@@ -7446,8 +7526,8 @@
       <c r="C138" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D138" s="2">
-        <v>305</v>
+      <c r="D138" s="40" t="s">
+        <v>523</v>
       </c>
       <c r="E138" s="2" t="s">
         <v>180</v>
@@ -7475,8 +7555,8 @@
       <c r="C139" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D139" s="2">
-        <v>961</v>
+      <c r="D139" s="40" t="s">
+        <v>565</v>
       </c>
       <c r="E139" s="2" t="s">
         <v>181</v>
@@ -7504,8 +7584,8 @@
       <c r="C140" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D140" s="2">
-        <v>42</v>
+      <c r="D140" s="40" t="s">
+        <v>488</v>
       </c>
       <c r="E140" s="2" t="s">
         <v>182</v>
@@ -7516,7 +7596,9 @@
       <c r="G140" s="2" t="s">
         <v>965</v>
       </c>
-      <c r="H140" s="7"/>
+      <c r="H140" s="7" t="s">
+        <v>493</v>
+      </c>
       <c r="I140" s="7" t="s">
         <v>493</v>
       </c>
@@ -7534,8 +7616,8 @@
       <c r="C141" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D141" s="2">
-        <v>162</v>
+      <c r="D141" s="40" t="s">
+        <v>507</v>
       </c>
       <c r="E141" s="2" t="s">
         <v>183</v>
@@ -7563,8 +7645,8 @@
       <c r="C142" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D142" s="2">
-        <v>287</v>
+      <c r="D142" s="40" t="s">
+        <v>520</v>
       </c>
       <c r="E142" s="2" t="s">
         <v>184</v>
@@ -7592,8 +7674,8 @@
       <c r="C143" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D143" s="2">
-        <v>934</v>
+      <c r="D143" s="40" t="s">
+        <v>616</v>
       </c>
       <c r="E143" s="2" t="s">
         <v>185</v>
@@ -7621,8 +7703,8 @@
       <c r="C144" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D144" s="2">
-        <v>961</v>
+      <c r="D144" s="40" t="s">
+        <v>565</v>
       </c>
       <c r="E144" s="2" t="s">
         <v>186</v>
@@ -7650,8 +7732,8 @@
       <c r="C145" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D145" s="2">
-        <v>988</v>
+      <c r="D145" s="40" t="s">
+        <v>541</v>
       </c>
       <c r="E145" s="2" t="s">
         <v>187</v>
@@ -7679,8 +7761,8 @@
       <c r="C146" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D146" s="2">
-        <v>136</v>
+      <c r="D146" s="40" t="s">
+        <v>485</v>
       </c>
       <c r="E146" s="2" t="s">
         <v>188</v>
@@ -7708,8 +7790,8 @@
       <c r="C147" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D147" s="2">
-        <v>218</v>
+      <c r="D147" s="40" t="s">
+        <v>476</v>
       </c>
       <c r="E147" s="2" t="s">
         <v>189</v>
@@ -7738,8 +7820,8 @@
       <c r="C148" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D148" s="2">
-        <v>1181</v>
+      <c r="D148" s="40" t="s">
+        <v>614</v>
       </c>
       <c r="E148" s="2" t="s">
         <v>190</v>
@@ -7767,8 +7849,8 @@
       <c r="C149" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D149" s="2">
-        <v>961</v>
+      <c r="D149" s="40" t="s">
+        <v>565</v>
       </c>
       <c r="E149" s="2" t="s">
         <v>191</v>
@@ -7796,8 +7878,8 @@
       <c r="C150" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D150" s="2">
-        <v>961</v>
+      <c r="D150" s="40" t="s">
+        <v>565</v>
       </c>
       <c r="E150" s="2" t="s">
         <v>192</v>
@@ -7825,8 +7907,8 @@
       <c r="C151" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D151" s="2">
-        <v>1181</v>
+      <c r="D151" s="40" t="s">
+        <v>614</v>
       </c>
       <c r="E151" s="2" t="s">
         <v>193</v>
@@ -7854,8 +7936,8 @@
       <c r="C152" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D152" s="2">
-        <v>1181</v>
+      <c r="D152" s="40" t="s">
+        <v>614</v>
       </c>
       <c r="E152" s="2" t="s">
         <v>194</v>
@@ -7883,8 +7965,8 @@
       <c r="C153" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D153" s="2">
-        <v>162</v>
+      <c r="D153" s="40" t="s">
+        <v>507</v>
       </c>
       <c r="E153" s="2" t="s">
         <v>196</v>
@@ -7912,8 +7994,8 @@
       <c r="C154" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D154" s="2">
-        <v>400</v>
+      <c r="D154" s="40" t="s">
+        <v>547</v>
       </c>
       <c r="E154" s="2" t="s">
         <v>198</v>
@@ -7941,8 +8023,8 @@
       <c r="C155" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D155" s="2">
-        <v>475</v>
+      <c r="D155" s="40" t="s">
+        <v>518</v>
       </c>
       <c r="E155" s="2" t="s">
         <v>199</v>
@@ -7970,8 +8052,8 @@
       <c r="C156" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D156" s="2">
-        <v>380</v>
+      <c r="D156" s="40" t="s">
+        <v>538</v>
       </c>
       <c r="E156" s="2" t="s">
         <v>201</v>
@@ -7999,8 +8081,8 @@
       <c r="C157" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D157" s="2">
-        <v>400</v>
+      <c r="D157" s="40" t="s">
+        <v>547</v>
       </c>
       <c r="E157" s="2" t="s">
         <v>165</v>
@@ -8028,8 +8110,8 @@
       <c r="C158" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D158" s="2">
-        <v>209</v>
+      <c r="D158" s="40" t="s">
+        <v>495</v>
       </c>
       <c r="E158" s="2" t="s">
         <v>202</v>
@@ -8057,8 +8139,8 @@
       <c r="C159" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D159" s="2">
-        <v>63</v>
+      <c r="D159" s="40" t="s">
+        <v>498</v>
       </c>
       <c r="E159" s="2" t="s">
         <v>203</v>
@@ -8069,7 +8151,9 @@
       <c r="G159" s="2" t="s">
         <v>965</v>
       </c>
-      <c r="H159" s="7"/>
+      <c r="H159" s="7" t="s">
+        <v>493</v>
+      </c>
       <c r="I159" s="7" t="s">
         <v>493</v>
       </c>
@@ -8087,8 +8171,8 @@
       <c r="C160" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D160" s="2">
-        <v>229</v>
+      <c r="D160" s="40" t="s">
+        <v>480</v>
       </c>
       <c r="E160" s="2" t="s">
         <v>204</v>
@@ -8116,8 +8200,8 @@
       <c r="C161" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D161" s="2">
-        <v>475</v>
+      <c r="D161" s="40" t="s">
+        <v>518</v>
       </c>
       <c r="E161" s="2" t="s">
         <v>206</v>
@@ -8145,8 +8229,8 @@
       <c r="C162" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D162" s="2">
-        <v>961</v>
+      <c r="D162" s="40" t="s">
+        <v>565</v>
       </c>
       <c r="E162" s="2" t="s">
         <v>207</v>
@@ -8174,8 +8258,8 @@
       <c r="C163" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D163" s="2">
-        <v>380</v>
+      <c r="D163" s="40" t="s">
+        <v>538</v>
       </c>
       <c r="E163" s="2" t="s">
         <v>80</v>
@@ -8203,8 +8287,8 @@
       <c r="C164" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D164" s="2">
-        <v>234</v>
+      <c r="D164" s="40" t="s">
+        <v>502</v>
       </c>
       <c r="E164" s="2" t="s">
         <v>208</v>
@@ -8232,8 +8316,8 @@
       <c r="C165" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D165" s="2">
-        <v>934</v>
+      <c r="D165" s="40" t="s">
+        <v>616</v>
       </c>
       <c r="E165" s="2" t="s">
         <v>209</v>
@@ -8261,8 +8345,8 @@
       <c r="C166" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D166" s="2">
-        <v>294</v>
+      <c r="D166" s="40" t="s">
+        <v>521</v>
       </c>
       <c r="E166" s="2" t="s">
         <v>66</v>
@@ -8290,8 +8374,8 @@
       <c r="C167" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D167" s="2">
-        <v>961</v>
+      <c r="D167" s="40" t="s">
+        <v>565</v>
       </c>
       <c r="E167" s="2" t="s">
         <v>210</v>
@@ -8319,8 +8403,8 @@
       <c r="C168" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D168" s="2">
-        <v>475</v>
+      <c r="D168" s="40" t="s">
+        <v>518</v>
       </c>
       <c r="E168" s="2" t="s">
         <v>157</v>
@@ -8348,8 +8432,8 @@
       <c r="C169" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D169" s="2">
-        <v>934</v>
+      <c r="D169" s="40" t="s">
+        <v>616</v>
       </c>
       <c r="E169" s="2" t="s">
         <v>211</v>
@@ -8377,8 +8461,8 @@
       <c r="C170" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D170" s="2">
-        <v>988</v>
+      <c r="D170" s="40" t="s">
+        <v>541</v>
       </c>
       <c r="E170" s="2" t="s">
         <v>212</v>
@@ -8406,8 +8490,8 @@
       <c r="C171" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D171" s="2">
-        <v>1038</v>
+      <c r="D171" s="40" t="s">
+        <v>619</v>
       </c>
       <c r="E171" s="2" t="s">
         <v>213</v>
@@ -8418,7 +8502,9 @@
       <c r="G171" s="2" t="s">
         <v>965</v>
       </c>
-      <c r="H171" s="7"/>
+      <c r="H171" s="7" t="s">
+        <v>493</v>
+      </c>
       <c r="I171" s="7" t="s">
         <v>493</v>
       </c>
@@ -8436,8 +8522,8 @@
       <c r="C172" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D172" s="2">
-        <v>57</v>
+      <c r="D172" s="40" t="s">
+        <v>492</v>
       </c>
       <c r="E172" s="2" t="s">
         <v>214</v>
@@ -8465,8 +8551,8 @@
       <c r="C173" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D173" s="2">
-        <v>135</v>
+      <c r="D173" s="40" t="s">
+        <v>504</v>
       </c>
       <c r="E173" s="2" t="s">
         <v>131</v>
@@ -8494,8 +8580,8 @@
       <c r="C174" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D174" s="2">
-        <v>1181</v>
+      <c r="D174" s="40" t="s">
+        <v>614</v>
       </c>
       <c r="E174" s="2" t="s">
         <v>215</v>
@@ -8523,8 +8609,8 @@
       <c r="C175" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D175" s="2">
-        <v>815</v>
+      <c r="D175" s="40" t="s">
+        <v>600</v>
       </c>
       <c r="E175" s="2" t="s">
         <v>216</v>
@@ -8552,8 +8638,8 @@
       <c r="C176" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D176" s="2">
-        <v>961</v>
+      <c r="D176" s="40" t="s">
+        <v>565</v>
       </c>
       <c r="E176" s="2" t="s">
         <v>200</v>
@@ -8581,8 +8667,8 @@
       <c r="C177" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D177" s="2">
-        <v>208</v>
+      <c r="D177" s="40" t="s">
+        <v>513</v>
       </c>
       <c r="E177" s="2" t="s">
         <v>217</v>
@@ -8610,8 +8696,8 @@
       <c r="C178" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D178" s="2">
-        <v>305</v>
+      <c r="D178" s="40" t="s">
+        <v>523</v>
       </c>
       <c r="E178" s="2" t="s">
         <v>218</v>
@@ -8639,8 +8725,8 @@
       <c r="C179" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D179" s="2">
-        <v>63</v>
+      <c r="D179" s="40" t="s">
+        <v>498</v>
       </c>
       <c r="E179" s="2" t="s">
         <v>39</v>
@@ -8651,7 +8737,9 @@
       <c r="G179" s="2" t="s">
         <v>965</v>
       </c>
-      <c r="H179" s="7"/>
+      <c r="H179" s="7" t="s">
+        <v>493</v>
+      </c>
       <c r="I179" s="7" t="s">
         <v>493</v>
       </c>
@@ -8669,8 +8757,8 @@
       <c r="C180" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D180" s="2">
-        <v>294</v>
+      <c r="D180" s="40" t="s">
+        <v>521</v>
       </c>
       <c r="E180" s="2" t="s">
         <v>56</v>
@@ -8698,8 +8786,8 @@
       <c r="C181" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D181" s="2">
-        <v>815</v>
+      <c r="D181" s="40" t="s">
+        <v>600</v>
       </c>
       <c r="E181" s="2" t="s">
         <v>219</v>
@@ -8727,8 +8815,8 @@
       <c r="C182" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D182" s="2">
-        <v>400</v>
+      <c r="D182" s="40" t="s">
+        <v>547</v>
       </c>
       <c r="E182" s="2" t="s">
         <v>122</v>
@@ -8756,8 +8844,8 @@
       <c r="C183" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D183" s="2">
-        <v>475</v>
+      <c r="D183" s="40" t="s">
+        <v>518</v>
       </c>
       <c r="E183" s="2" t="s">
         <v>220</v>
@@ -8785,8 +8873,8 @@
       <c r="C184" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D184" s="2">
-        <v>591</v>
+      <c r="D184" s="40" t="s">
+        <v>573</v>
       </c>
       <c r="E184" s="2" t="s">
         <v>221</v>
@@ -8814,8 +8902,8 @@
       <c r="C185" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D185" s="2">
-        <v>681</v>
+      <c r="D185" s="40" t="s">
+        <v>585</v>
       </c>
       <c r="E185" s="2" t="s">
         <v>164</v>
@@ -8843,8 +8931,8 @@
       <c r="C186" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D186" s="2">
-        <v>162</v>
+      <c r="D186" s="40" t="s">
+        <v>507</v>
       </c>
       <c r="E186" s="2" t="s">
         <v>223</v>
@@ -8872,8 +8960,8 @@
       <c r="C187" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D187" s="2">
-        <v>380</v>
+      <c r="D187" s="40" t="s">
+        <v>538</v>
       </c>
       <c r="E187" s="2" t="s">
         <v>224</v>
@@ -8901,8 +8989,8 @@
       <c r="C188" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D188" s="2">
-        <v>988</v>
+      <c r="D188" s="40" t="s">
+        <v>541</v>
       </c>
       <c r="E188" s="2" t="s">
         <v>225</v>
@@ -8930,8 +9018,8 @@
       <c r="C189" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D189" s="2">
-        <v>234</v>
+      <c r="D189" s="40" t="s">
+        <v>502</v>
       </c>
       <c r="E189" s="2" t="s">
         <v>226</v>
@@ -8959,8 +9047,8 @@
       <c r="C190" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D190" s="2">
-        <v>305</v>
+      <c r="D190" s="40" t="s">
+        <v>523</v>
       </c>
       <c r="E190" s="2" t="s">
         <v>63</v>
@@ -8988,8 +9076,8 @@
       <c r="C191" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D191" s="2">
-        <v>305</v>
+      <c r="D191" s="40" t="s">
+        <v>523</v>
       </c>
       <c r="E191" s="2" t="s">
         <v>227</v>
@@ -9017,8 +9105,8 @@
       <c r="C192" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D192" s="2">
-        <v>202</v>
+      <c r="D192" s="40" t="s">
+        <v>483</v>
       </c>
       <c r="E192" s="2" t="s">
         <v>228</v>
@@ -9046,8 +9134,8 @@
       <c r="C193" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D193" s="2">
-        <v>815</v>
+      <c r="D193" s="40" t="s">
+        <v>600</v>
       </c>
       <c r="E193" s="2" t="s">
         <v>229</v>
@@ -9075,8 +9163,8 @@
       <c r="C194" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D194" s="2">
-        <v>591</v>
+      <c r="D194" s="40" t="s">
+        <v>573</v>
       </c>
       <c r="E194" s="2" t="s">
         <v>230</v>
@@ -9104,8 +9192,8 @@
       <c r="C195" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D195" s="2">
-        <v>305</v>
+      <c r="D195" s="40" t="s">
+        <v>523</v>
       </c>
       <c r="E195" s="2" t="s">
         <v>231</v>
@@ -9133,8 +9221,8 @@
       <c r="C196" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D196" s="2">
-        <v>234</v>
+      <c r="D196" s="40" t="s">
+        <v>502</v>
       </c>
       <c r="E196" s="2" t="s">
         <v>233</v>
@@ -9162,8 +9250,8 @@
       <c r="C197" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D197" s="2">
-        <v>1181</v>
+      <c r="D197" s="40" t="s">
+        <v>614</v>
       </c>
       <c r="E197" s="2" t="s">
         <v>234</v>
@@ -9191,8 +9279,8 @@
       <c r="C198" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D198" s="2">
-        <v>934</v>
+      <c r="D198" s="40" t="s">
+        <v>616</v>
       </c>
       <c r="E198" s="2" t="s">
         <v>235</v>
@@ -9220,8 +9308,8 @@
       <c r="C199" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D199" s="2">
-        <v>294</v>
+      <c r="D199" s="40" t="s">
+        <v>521</v>
       </c>
       <c r="E199" s="2" t="s">
         <v>67</v>
@@ -9249,8 +9337,8 @@
       <c r="C200" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D200" s="2">
-        <v>135</v>
+      <c r="D200" s="40" t="s">
+        <v>504</v>
       </c>
       <c r="E200" s="2" t="s">
         <v>53</v>
@@ -9278,8 +9366,8 @@
       <c r="C201" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D201" s="2">
-        <v>135</v>
+      <c r="D201" s="40" t="s">
+        <v>504</v>
       </c>
       <c r="E201" s="2" t="s">
         <v>78</v>
@@ -9307,8 +9395,8 @@
       <c r="C202" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D202" s="2">
-        <v>1119</v>
+      <c r="D202" s="40" t="s">
+        <v>641</v>
       </c>
       <c r="E202" s="2" t="s">
         <v>237</v>
@@ -9336,8 +9424,8 @@
       <c r="C203" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D203" s="2">
-        <v>591</v>
+      <c r="D203" s="40" t="s">
+        <v>573</v>
       </c>
       <c r="E203" s="2" t="s">
         <v>238</v>
@@ -9365,8 +9453,8 @@
       <c r="C204" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D204" s="2">
-        <v>934</v>
+      <c r="D204" s="40" t="s">
+        <v>616</v>
       </c>
       <c r="E204" s="2" t="s">
         <v>239</v>
@@ -9394,8 +9482,8 @@
       <c r="C205" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D205" s="2">
-        <v>234</v>
+      <c r="D205" s="40" t="s">
+        <v>502</v>
       </c>
       <c r="E205" s="2" t="s">
         <v>110</v>
@@ -9423,8 +9511,8 @@
       <c r="C206" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D206" s="2">
-        <v>418</v>
+      <c r="D206" s="40" t="s">
+        <v>509</v>
       </c>
       <c r="E206" s="2" t="s">
         <v>240</v>
@@ -9452,8 +9540,8 @@
       <c r="C207" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D207" s="2">
-        <v>277</v>
+      <c r="D207" s="40" t="s">
+        <v>516</v>
       </c>
       <c r="E207" s="2" t="s">
         <v>241</v>
@@ -9481,8 +9569,8 @@
       <c r="C208" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D208" s="2">
-        <v>287</v>
+      <c r="D208" s="40" t="s">
+        <v>520</v>
       </c>
       <c r="E208" s="2" t="s">
         <v>242</v>
@@ -9510,8 +9598,8 @@
       <c r="C209" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D209" s="2">
-        <v>815</v>
+      <c r="D209" s="40" t="s">
+        <v>600</v>
       </c>
       <c r="E209" s="2" t="s">
         <v>243</v>
@@ -9539,8 +9627,8 @@
       <c r="C210" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D210" s="2">
-        <v>934</v>
+      <c r="D210" s="40" t="s">
+        <v>616</v>
       </c>
       <c r="E210" s="2" t="s">
         <v>244</v>
@@ -9568,8 +9656,8 @@
       <c r="C211" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D211" s="2">
-        <v>591</v>
+      <c r="D211" s="40" t="s">
+        <v>573</v>
       </c>
       <c r="E211" s="2" t="s">
         <v>245</v>
@@ -9597,8 +9685,8 @@
       <c r="C212" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D212" s="2">
-        <v>425</v>
+      <c r="D212" s="40" t="s">
+        <v>528</v>
       </c>
       <c r="E212" s="2" t="s">
         <v>246</v>
@@ -9626,8 +9714,8 @@
       <c r="C213" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D213" s="2">
-        <v>162</v>
+      <c r="D213" s="40" t="s">
+        <v>507</v>
       </c>
       <c r="E213" s="2" t="s">
         <v>247</v>
@@ -9655,8 +9743,8 @@
       <c r="C214" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D214" s="2">
-        <v>988</v>
+      <c r="D214" s="40" t="s">
+        <v>541</v>
       </c>
       <c r="E214" s="2" t="s">
         <v>33</v>
@@ -9684,8 +9772,8 @@
       <c r="C215" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D215" s="2">
-        <v>234</v>
+      <c r="D215" s="40" t="s">
+        <v>502</v>
       </c>
       <c r="E215" s="2" t="s">
         <v>248</v>
@@ -9713,8 +9801,8 @@
       <c r="C216" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D216" s="2">
-        <v>1002</v>
+      <c r="D216" s="40" t="s">
+        <v>604</v>
       </c>
       <c r="E216" s="2" t="s">
         <v>2</v>
@@ -9742,8 +9830,8 @@
       <c r="C217" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D217" s="2">
-        <v>57</v>
+      <c r="D217" s="40" t="s">
+        <v>492</v>
       </c>
       <c r="E217" s="2" t="s">
         <v>250</v>
@@ -9771,8 +9859,8 @@
       <c r="C218" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D218" s="2">
-        <v>305</v>
+      <c r="D218" s="40" t="s">
+        <v>523</v>
       </c>
       <c r="E218" s="2" t="s">
         <v>251</v>
@@ -9800,8 +9888,8 @@
       <c r="C219" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D219" s="2">
-        <v>305</v>
+      <c r="D219" s="40" t="s">
+        <v>523</v>
       </c>
       <c r="E219" s="2" t="s">
         <v>252</v>
@@ -9829,8 +9917,8 @@
       <c r="C220" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D220" s="2">
-        <v>71</v>
+      <c r="D220" s="40" t="s">
+        <v>497</v>
       </c>
       <c r="E220" s="2" t="s">
         <v>253</v>
@@ -9858,8 +9946,8 @@
       <c r="C221" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D221" s="2">
-        <v>591</v>
+      <c r="D221" s="40" t="s">
+        <v>573</v>
       </c>
       <c r="E221" s="2" t="s">
         <v>254</v>
@@ -9887,8 +9975,8 @@
       <c r="C222" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D222" s="2">
-        <v>208</v>
+      <c r="D222" s="40" t="s">
+        <v>513</v>
       </c>
       <c r="E222" s="2" t="s">
         <v>255</v>
@@ -9916,8 +10004,8 @@
       <c r="C223" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D223" s="2">
-        <v>961</v>
+      <c r="D223" s="40" t="s">
+        <v>565</v>
       </c>
       <c r="E223" s="2" t="s">
         <v>256</v>
@@ -9945,8 +10033,8 @@
       <c r="C224" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D224" s="2">
-        <v>1181</v>
+      <c r="D224" s="40" t="s">
+        <v>614</v>
       </c>
       <c r="E224" s="2" t="s">
         <v>257</v>
@@ -9974,8 +10062,8 @@
       <c r="C225" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D225" s="2">
-        <v>443</v>
+      <c r="D225" s="40" t="s">
+        <v>530</v>
       </c>
       <c r="E225" s="2" t="s">
         <v>258</v>
@@ -10003,8 +10091,8 @@
       <c r="C226" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D226" s="2">
-        <v>934</v>
+      <c r="D226" s="40" t="s">
+        <v>616</v>
       </c>
       <c r="E226" s="2" t="s">
         <v>259</v>
@@ -10032,8 +10120,8 @@
       <c r="C227" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D227" s="2">
-        <v>305</v>
+      <c r="D227" s="40" t="s">
+        <v>523</v>
       </c>
       <c r="E227" s="2" t="s">
         <v>260</v>
@@ -10061,8 +10149,8 @@
       <c r="C228" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D228" s="2">
-        <v>208</v>
+      <c r="D228" s="40" t="s">
+        <v>513</v>
       </c>
       <c r="E228" s="2" t="s">
         <v>261</v>
@@ -10090,8 +10178,8 @@
       <c r="C229" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D229" s="2">
-        <v>305</v>
+      <c r="D229" s="40" t="s">
+        <v>523</v>
       </c>
       <c r="E229" s="2" t="s">
         <v>262</v>
@@ -10119,8 +10207,8 @@
       <c r="C230" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D230" s="2">
-        <v>1181</v>
+      <c r="D230" s="40" t="s">
+        <v>614</v>
       </c>
       <c r="E230" s="2" t="s">
         <v>263</v>
@@ -10148,8 +10236,8 @@
       <c r="C231" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D231" s="2">
-        <v>277</v>
+      <c r="D231" s="40" t="s">
+        <v>516</v>
       </c>
       <c r="E231" s="2" t="s">
         <v>155</v>
@@ -10177,8 +10265,8 @@
       <c r="C232" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D232" s="2">
-        <v>294</v>
+      <c r="D232" s="40" t="s">
+        <v>521</v>
       </c>
       <c r="E232" s="2" t="s">
         <v>264</v>
@@ -10206,8 +10294,8 @@
       <c r="C233" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D233" s="2">
-        <v>135</v>
+      <c r="D233" s="40" t="s">
+        <v>504</v>
       </c>
       <c r="E233" s="2" t="s">
         <v>265</v>
@@ -10235,8 +10323,8 @@
       <c r="C234" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D234" s="2">
-        <v>305</v>
+      <c r="D234" s="40" t="s">
+        <v>523</v>
       </c>
       <c r="E234" s="2" t="s">
         <v>266</v>
@@ -10264,8 +10352,8 @@
       <c r="C235" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D235" s="2">
-        <v>277</v>
+      <c r="D235" s="40" t="s">
+        <v>516</v>
       </c>
       <c r="E235" s="2" t="s">
         <v>267</v>
@@ -10293,8 +10381,8 @@
       <c r="C236" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D236" s="2">
-        <v>430</v>
+      <c r="D236" s="40" t="s">
+        <v>535</v>
       </c>
       <c r="E236" s="2" t="s">
         <v>268</v>
@@ -10322,8 +10410,8 @@
       <c r="C237" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D237" s="2">
-        <v>815</v>
+      <c r="D237" s="40" t="s">
+        <v>600</v>
       </c>
       <c r="E237" s="2" t="s">
         <v>269</v>
@@ -10351,8 +10439,8 @@
       <c r="C238" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D238" s="2">
-        <v>135</v>
+      <c r="D238" s="40" t="s">
+        <v>504</v>
       </c>
       <c r="E238" s="2" t="s">
         <v>270</v>
@@ -10380,8 +10468,8 @@
       <c r="C239" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D239" s="2">
-        <v>815</v>
+      <c r="D239" s="40" t="s">
+        <v>600</v>
       </c>
       <c r="E239" s="2" t="s">
         <v>271</v>
@@ -10409,8 +10497,8 @@
       <c r="C240" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D240" s="2">
-        <v>988</v>
+      <c r="D240" s="40" t="s">
+        <v>541</v>
       </c>
       <c r="E240" s="2" t="s">
         <v>272</v>
@@ -10438,8 +10526,8 @@
       <c r="C241" s="34" t="s">
         <v>236</v>
       </c>
-      <c r="D241" s="34">
-        <v>218</v>
+      <c r="D241" s="39" t="s">
+        <v>476</v>
       </c>
       <c r="E241" s="34" t="s">
         <v>273</v>
@@ -10467,8 +10555,8 @@
       <c r="C242" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D242" s="2">
-        <v>305</v>
+      <c r="D242" s="40" t="s">
+        <v>523</v>
       </c>
       <c r="E242" s="2" t="s">
         <v>274</v>
@@ -10496,8 +10584,8 @@
       <c r="C243" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D243" s="2">
-        <v>591</v>
+      <c r="D243" s="40" t="s">
+        <v>573</v>
       </c>
       <c r="E243" s="2" t="s">
         <v>275</v>
@@ -10525,8 +10613,8 @@
       <c r="C244" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D244" s="2">
-        <v>277</v>
+      <c r="D244" s="40" t="s">
+        <v>516</v>
       </c>
       <c r="E244" s="2" t="s">
         <v>58</v>
@@ -10554,8 +10642,8 @@
       <c r="C245" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D245" s="2">
-        <v>681</v>
+      <c r="D245" s="40" t="s">
+        <v>585</v>
       </c>
       <c r="E245" s="2" t="s">
         <v>126</v>
@@ -10583,8 +10671,8 @@
       <c r="C246" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D246" s="2">
-        <v>475</v>
+      <c r="D246" s="40" t="s">
+        <v>518</v>
       </c>
       <c r="E246" s="2" t="s">
         <v>62</v>
@@ -10612,8 +10700,8 @@
       <c r="C247" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D247" s="2">
-        <v>69</v>
+      <c r="D247" s="40" t="s">
+        <v>500</v>
       </c>
       <c r="E247" s="2" t="s">
         <v>277</v>
@@ -10641,8 +10729,8 @@
       <c r="C248" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D248" s="2">
-        <v>961</v>
+      <c r="D248" s="40" t="s">
+        <v>565</v>
       </c>
       <c r="E248" s="2" t="s">
         <v>278</v>
@@ -10670,8 +10758,8 @@
       <c r="C249" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="D249" s="2">
-        <v>1386</v>
+      <c r="D249" s="40" t="s">
+        <v>722</v>
       </c>
       <c r="E249" s="2" t="s">
         <v>279</v>
@@ -10682,7 +10770,9 @@
       <c r="G249" s="2" t="s">
         <v>965</v>
       </c>
-      <c r="H249" s="7"/>
+      <c r="H249" s="7" t="s">
+        <v>493</v>
+      </c>
       <c r="I249" s="7" t="s">
         <v>493</v>
       </c>
@@ -10700,8 +10790,8 @@
       <c r="C250" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="D250" s="2">
-        <v>1386</v>
+      <c r="D250" s="40" t="s">
+        <v>722</v>
       </c>
       <c r="E250" s="2" t="s">
         <v>280</v>
@@ -10712,7 +10802,9 @@
       <c r="G250" s="2" t="s">
         <v>965</v>
       </c>
-      <c r="H250" s="7"/>
+      <c r="H250" s="7" t="s">
+        <v>493</v>
+      </c>
       <c r="I250" s="7" t="s">
         <v>493</v>
       </c>
@@ -10730,8 +10822,8 @@
       <c r="C251" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D251" s="2">
-        <v>591</v>
+      <c r="D251" s="40" t="s">
+        <v>573</v>
       </c>
       <c r="E251" s="2" t="s">
         <v>281</v>
@@ -10759,8 +10851,8 @@
       <c r="C252" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D252" s="2">
-        <v>591</v>
+      <c r="D252" s="40" t="s">
+        <v>573</v>
       </c>
       <c r="E252" s="2" t="s">
         <v>159</v>
@@ -10788,8 +10880,8 @@
       <c r="C253" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D253" s="2">
-        <v>815</v>
+      <c r="D253" s="40" t="s">
+        <v>600</v>
       </c>
       <c r="E253" s="2" t="s">
         <v>282</v>
@@ -10817,8 +10909,8 @@
       <c r="C254" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="D254" s="32">
-        <v>1002</v>
+      <c r="D254" s="42" t="s">
+        <v>604</v>
       </c>
       <c r="E254" s="32" t="s">
         <v>283</v>
@@ -10846,8 +10938,8 @@
       <c r="C255" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D255" s="2">
-        <v>475</v>
+      <c r="D255" s="40" t="s">
+        <v>518</v>
       </c>
       <c r="E255" s="2" t="s">
         <v>284</v>
@@ -10875,8 +10967,8 @@
       <c r="C256" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D256" s="2">
-        <v>934</v>
+      <c r="D256" s="40" t="s">
+        <v>616</v>
       </c>
       <c r="E256" s="2" t="s">
         <v>285</v>
@@ -10904,8 +10996,8 @@
       <c r="C257" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D257" s="2">
-        <v>961</v>
+      <c r="D257" s="40" t="s">
+        <v>565</v>
       </c>
       <c r="E257" s="2" t="s">
         <v>286</v>
@@ -10933,8 +11025,8 @@
       <c r="C258" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="D258" s="2">
-        <v>1406</v>
+      <c r="D258" s="40" t="s">
+        <v>731</v>
       </c>
       <c r="E258" s="2" t="s">
         <v>287</v>
@@ -10962,8 +11054,8 @@
       <c r="C259" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="D259" s="2">
-        <v>1406</v>
+      <c r="D259" s="40" t="s">
+        <v>731</v>
       </c>
       <c r="E259" s="2" t="s">
         <v>288</v>
@@ -10991,8 +11083,8 @@
       <c r="C260" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D260" s="2">
-        <v>475</v>
+      <c r="D260" s="40" t="s">
+        <v>518</v>
       </c>
       <c r="E260" s="2" t="s">
         <v>289</v>
@@ -11020,8 +11112,8 @@
       <c r="C261" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="D261" s="2">
-        <v>1406</v>
+      <c r="D261" s="40" t="s">
+        <v>731</v>
       </c>
       <c r="E261" s="2" t="s">
         <v>290</v>
@@ -11049,8 +11141,8 @@
       <c r="C262" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D262" s="2">
-        <v>430</v>
+      <c r="D262" s="40" t="s">
+        <v>535</v>
       </c>
       <c r="E262" s="2" t="s">
         <v>291</v>
@@ -11078,8 +11170,8 @@
       <c r="C263" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D263" s="2">
-        <v>277</v>
+      <c r="D263" s="40" t="s">
+        <v>516</v>
       </c>
       <c r="E263" s="2" t="s">
         <v>173</v>
@@ -11107,8 +11199,8 @@
       <c r="C264" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="D264" s="2">
-        <v>1404</v>
+      <c r="D264" s="40" t="s">
+        <v>730</v>
       </c>
       <c r="E264" s="2" t="s">
         <v>292</v>
@@ -11136,8 +11228,8 @@
       <c r="C265" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="D265" s="2">
-        <v>1404</v>
+      <c r="D265" s="40" t="s">
+        <v>730</v>
       </c>
       <c r="E265" s="2" t="s">
         <v>293</v>
@@ -11165,8 +11257,8 @@
       <c r="C266" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="D266" s="2">
-        <v>1404</v>
+      <c r="D266" s="40" t="s">
+        <v>730</v>
       </c>
       <c r="E266" s="2" t="s">
         <v>294</v>
@@ -11194,8 +11286,8 @@
       <c r="C267" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D267" s="2">
-        <v>1002</v>
+      <c r="D267" s="40" t="s">
+        <v>604</v>
       </c>
       <c r="E267" s="2" t="s">
         <v>295</v>
@@ -11223,8 +11315,8 @@
       <c r="C268" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="D268" s="32">
-        <v>201</v>
+      <c r="D268" s="42" t="s">
+        <v>511</v>
       </c>
       <c r="E268" s="32" t="s">
         <v>296</v>
@@ -11252,8 +11344,8 @@
       <c r="C269" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="D269" s="2">
-        <v>1404</v>
+      <c r="D269" s="40" t="s">
+        <v>730</v>
       </c>
       <c r="E269" s="2" t="s">
         <v>297</v>
@@ -11281,8 +11373,8 @@
       <c r="C270" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D270" s="2">
-        <v>229</v>
+      <c r="D270" s="40" t="s">
+        <v>480</v>
       </c>
       <c r="E270" s="2" t="s">
         <v>298</v>
@@ -11310,8 +11402,8 @@
       <c r="C271" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D271" s="2">
-        <v>591</v>
+      <c r="D271" s="40" t="s">
+        <v>573</v>
       </c>
       <c r="E271" s="2" t="s">
         <v>299</v>
@@ -11339,8 +11431,8 @@
       <c r="C272" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="D272" s="2">
-        <v>1404</v>
+      <c r="D272" s="40" t="s">
+        <v>730</v>
       </c>
       <c r="E272" s="2" t="s">
         <v>300</v>
@@ -11368,8 +11460,8 @@
       <c r="C273" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D273" s="2">
-        <v>681</v>
+      <c r="D273" s="40" t="s">
+        <v>585</v>
       </c>
       <c r="E273" s="2" t="s">
         <v>301</v>
@@ -11397,8 +11489,8 @@
       <c r="C274" s="32" t="s">
         <v>236</v>
       </c>
-      <c r="D274" s="32">
-        <v>1404</v>
+      <c r="D274" s="42" t="s">
+        <v>730</v>
       </c>
       <c r="E274" s="32" t="s">
         <v>271</v>
@@ -11426,8 +11518,8 @@
       <c r="C275" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D275" s="2">
-        <v>961</v>
+      <c r="D275" s="40" t="s">
+        <v>565</v>
       </c>
       <c r="E275" s="2" t="s">
         <v>302</v>
@@ -11455,8 +11547,8 @@
       <c r="C276" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D276" s="2">
-        <v>934</v>
+      <c r="D276" s="40" t="s">
+        <v>616</v>
       </c>
       <c r="E276" s="2" t="s">
         <v>143</v>
@@ -11484,8 +11576,8 @@
       <c r="C277" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D277" s="2">
-        <v>57</v>
+      <c r="D277" s="40" t="s">
+        <v>492</v>
       </c>
       <c r="E277" s="2" t="s">
         <v>83</v>
@@ -11513,8 +11605,8 @@
       <c r="C278" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D278" s="2">
-        <v>380</v>
+      <c r="D278" s="40" t="s">
+        <v>538</v>
       </c>
       <c r="E278" s="2" t="s">
         <v>303</v>
@@ -11542,8 +11634,8 @@
       <c r="C279" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D279" s="2">
-        <v>162</v>
+      <c r="D279" s="40" t="s">
+        <v>507</v>
       </c>
       <c r="E279" s="2" t="s">
         <v>304</v>
@@ -11571,8 +11663,8 @@
       <c r="C280" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D280" s="2">
-        <v>277</v>
+      <c r="D280" s="40" t="s">
+        <v>516</v>
       </c>
       <c r="E280" s="2" t="s">
         <v>305</v>
@@ -11600,8 +11692,8 @@
       <c r="C281" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="D281" s="2">
-        <v>1406</v>
+      <c r="D281" s="40" t="s">
+        <v>731</v>
       </c>
       <c r="E281" s="2" t="s">
         <v>307</v>
@@ -11629,8 +11721,8 @@
       <c r="C282" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D282" s="2">
-        <v>591</v>
+      <c r="D282" s="40" t="s">
+        <v>573</v>
       </c>
       <c r="E282" s="2" t="s">
         <v>308</v>
@@ -11658,8 +11750,8 @@
       <c r="C283" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D283" s="2">
-        <v>208</v>
+      <c r="D283" s="40" t="s">
+        <v>513</v>
       </c>
       <c r="E283" s="2" t="s">
         <v>309</v>
@@ -11687,8 +11779,8 @@
       <c r="C284" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D284" s="2">
-        <v>681</v>
+      <c r="D284" s="40" t="s">
+        <v>585</v>
       </c>
       <c r="E284" s="2" t="s">
         <v>310</v>
@@ -11716,8 +11808,8 @@
       <c r="C285" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D285" s="2">
-        <v>475</v>
+      <c r="D285" s="40" t="s">
+        <v>518</v>
       </c>
       <c r="E285" s="2" t="s">
         <v>311</v>
@@ -11745,8 +11837,8 @@
       <c r="C286" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D286" s="2">
-        <v>400</v>
+      <c r="D286" s="40" t="s">
+        <v>547</v>
       </c>
       <c r="E286" s="2" t="s">
         <v>312</v>
@@ -11774,8 +11866,8 @@
       <c r="C287" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D287" s="2">
-        <v>934</v>
+      <c r="D287" s="40" t="s">
+        <v>616</v>
       </c>
       <c r="E287" s="2" t="s">
         <v>313</v>
@@ -11803,8 +11895,8 @@
       <c r="C288" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="D288" s="2">
-        <v>1406</v>
+      <c r="D288" s="40" t="s">
+        <v>731</v>
       </c>
       <c r="E288" s="2" t="s">
         <v>306</v>
@@ -11832,8 +11924,8 @@
       <c r="C289" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="D289" s="2">
-        <v>1404</v>
+      <c r="D289" s="40" t="s">
+        <v>730</v>
       </c>
       <c r="E289" s="2" t="s">
         <v>314</v>
@@ -11861,8 +11953,8 @@
       <c r="C290" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D290" s="2">
-        <v>430</v>
+      <c r="D290" s="40" t="s">
+        <v>535</v>
       </c>
       <c r="E290" s="2" t="s">
         <v>315</v>
@@ -11890,8 +11982,8 @@
       <c r="C291" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D291" s="2">
-        <v>591</v>
+      <c r="D291" s="40" t="s">
+        <v>573</v>
       </c>
       <c r="E291" s="2" t="s">
         <v>316</v>
@@ -11919,8 +12011,8 @@
       <c r="C292" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D292" s="2">
-        <v>69</v>
+      <c r="D292" s="40" t="s">
+        <v>500</v>
       </c>
       <c r="E292" s="2" t="s">
         <v>318</v>
@@ -11948,8 +12040,8 @@
       <c r="C293" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="D293" s="34">
-        <v>1203</v>
+      <c r="D293" s="39" t="s">
+        <v>660</v>
       </c>
       <c r="E293" s="34" t="s">
         <v>319</v>
@@ -11977,8 +12069,8 @@
       <c r="C294" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D294" s="2">
-        <v>209</v>
+      <c r="D294" s="40" t="s">
+        <v>495</v>
       </c>
       <c r="E294" s="2" t="s">
         <v>320</v>
@@ -12006,8 +12098,8 @@
       <c r="C295" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D295" s="2">
-        <v>234</v>
+      <c r="D295" s="40" t="s">
+        <v>502</v>
       </c>
       <c r="E295" s="2" t="s">
         <v>25</v>
@@ -12035,8 +12127,8 @@
       <c r="C296" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D296" s="2">
-        <v>1181</v>
+      <c r="D296" s="40" t="s">
+        <v>614</v>
       </c>
       <c r="E296" s="2" t="s">
         <v>321</v>
@@ -12064,8 +12156,8 @@
       <c r="C297" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="D297" s="2">
-        <v>1406</v>
+      <c r="D297" s="40" t="s">
+        <v>731</v>
       </c>
       <c r="E297" s="2" t="s">
         <v>322</v>
@@ -12093,8 +12185,8 @@
       <c r="C298" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D298" s="2">
-        <v>443</v>
+      <c r="D298" s="40" t="s">
+        <v>530</v>
       </c>
       <c r="E298" s="2" t="s">
         <v>323</v>
@@ -12122,8 +12214,8 @@
       <c r="C299" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D299" s="2">
-        <v>179</v>
+      <c r="D299" s="40" t="s">
+        <v>505</v>
       </c>
       <c r="E299" s="2" t="s">
         <v>324</v>
@@ -12151,8 +12243,8 @@
       <c r="C300" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D300" s="2">
-        <v>216</v>
+      <c r="D300" s="40" t="s">
+        <v>514</v>
       </c>
       <c r="E300" s="2" t="s">
         <v>325</v>
@@ -12180,8 +12272,8 @@
       <c r="C301" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D301" s="2">
-        <v>418</v>
+      <c r="D301" s="40" t="s">
+        <v>509</v>
       </c>
       <c r="E301" s="2" t="s">
         <v>326</v>
@@ -12209,8 +12301,8 @@
       <c r="C302" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D302" s="2">
-        <v>277</v>
+      <c r="D302" s="40" t="s">
+        <v>516</v>
       </c>
       <c r="E302" s="2" t="s">
         <v>327</v>
@@ -12238,8 +12330,8 @@
       <c r="C303" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="D303" s="2">
-        <v>1404</v>
+      <c r="D303" s="40" t="s">
+        <v>730</v>
       </c>
       <c r="E303" s="2" t="s">
         <v>328</v>
@@ -12267,8 +12359,8 @@
       <c r="C304" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D304" s="2">
-        <v>216</v>
+      <c r="D304" s="40" t="s">
+        <v>514</v>
       </c>
       <c r="E304" s="2" t="s">
         <v>329</v>
@@ -12296,8 +12388,8 @@
       <c r="C305" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D305" s="2">
-        <v>277</v>
+      <c r="D305" s="40" t="s">
+        <v>516</v>
       </c>
       <c r="E305" s="2" t="s">
         <v>330</v>
@@ -12325,8 +12417,8 @@
       <c r="C306" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D306" s="2">
-        <v>961</v>
+      <c r="D306" s="40" t="s">
+        <v>565</v>
       </c>
       <c r="E306" s="2" t="s">
         <v>331</v>
@@ -12354,8 +12446,8 @@
       <c r="C307" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D307" s="2">
-        <v>961</v>
+      <c r="D307" s="40" t="s">
+        <v>565</v>
       </c>
       <c r="E307" s="2" t="s">
         <v>332</v>
@@ -12383,8 +12475,8 @@
       <c r="C308" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="D308" s="2">
-        <v>1406</v>
+      <c r="D308" s="40" t="s">
+        <v>731</v>
       </c>
       <c r="E308" s="2" t="s">
         <v>333</v>
@@ -12412,8 +12504,8 @@
       <c r="C309" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D309" s="2">
-        <v>1119</v>
+      <c r="D309" s="40" t="s">
+        <v>641</v>
       </c>
       <c r="E309" s="2" t="s">
         <v>334</v>
@@ -12441,8 +12533,8 @@
       <c r="C310" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D310" s="2">
-        <v>1181</v>
+      <c r="D310" s="40" t="s">
+        <v>614</v>
       </c>
       <c r="E310" s="2" t="s">
         <v>335</v>
@@ -12470,8 +12562,8 @@
       <c r="C311" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D311" s="2">
-        <v>123</v>
+      <c r="D311" s="40" t="s">
+        <v>503</v>
       </c>
       <c r="E311" s="2" t="s">
         <v>336</v>
@@ -12499,8 +12591,8 @@
       <c r="C312" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D312" s="2">
-        <v>815</v>
+      <c r="D312" s="40" t="s">
+        <v>600</v>
       </c>
       <c r="E312" s="2" t="s">
         <v>249</v>
@@ -12528,8 +12620,8 @@
       <c r="C313" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D313" s="2">
-        <v>201</v>
+      <c r="D313" s="40" t="s">
+        <v>511</v>
       </c>
       <c r="E313" s="2" t="s">
         <v>232</v>
@@ -12557,8 +12649,8 @@
       <c r="C314" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D314" s="2">
-        <v>961</v>
+      <c r="D314" s="40" t="s">
+        <v>565</v>
       </c>
       <c r="E314" s="2" t="s">
         <v>337</v>
@@ -12586,8 +12678,8 @@
       <c r="C315" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D315" s="2">
-        <v>1119</v>
+      <c r="D315" s="40" t="s">
+        <v>641</v>
       </c>
       <c r="E315" s="2" t="s">
         <v>338</v>
@@ -12615,8 +12707,8 @@
       <c r="C316" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D316" s="2">
-        <v>418</v>
+      <c r="D316" s="40" t="s">
+        <v>509</v>
       </c>
       <c r="E316" s="2" t="s">
         <v>339</v>
@@ -12644,8 +12736,8 @@
       <c r="C317" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D317" s="2">
-        <v>1181</v>
+      <c r="D317" s="40" t="s">
+        <v>614</v>
       </c>
       <c r="E317" s="2" t="s">
         <v>340</v>
@@ -12673,8 +12765,8 @@
       <c r="C318" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D318" s="2">
-        <v>1181</v>
+      <c r="D318" s="40" t="s">
+        <v>614</v>
       </c>
       <c r="E318" s="2" t="s">
         <v>341</v>
@@ -12702,8 +12794,8 @@
       <c r="C319" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D319" s="2">
-        <v>69</v>
+      <c r="D319" s="40" t="s">
+        <v>500</v>
       </c>
       <c r="E319" s="2" t="s">
         <v>342</v>
@@ -12731,8 +12823,8 @@
       <c r="C320" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="D320" s="29">
-        <v>1038</v>
+      <c r="D320" s="41" t="s">
+        <v>619</v>
       </c>
       <c r="E320" s="34" t="s">
         <v>343</v>
@@ -12760,8 +12852,8 @@
       <c r="C321" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D321" s="2">
-        <v>418</v>
+      <c r="D321" s="40" t="s">
+        <v>509</v>
       </c>
       <c r="E321" s="2" t="s">
         <v>344</v>
@@ -12789,8 +12881,8 @@
       <c r="C322" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="D322" s="2">
-        <v>1404</v>
+      <c r="D322" s="40" t="s">
+        <v>730</v>
       </c>
       <c r="E322" s="2" t="s">
         <v>169</v>
@@ -12818,8 +12910,8 @@
       <c r="C323" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D323" s="2">
-        <v>681</v>
+      <c r="D323" s="40" t="s">
+        <v>585</v>
       </c>
       <c r="E323" s="2" t="s">
         <v>276</v>
@@ -12847,8 +12939,8 @@
       <c r="C324" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="D324" s="2">
-        <v>1406</v>
+      <c r="D324" s="40" t="s">
+        <v>731</v>
       </c>
       <c r="E324" s="2" t="s">
         <v>345</v>
@@ -12874,10 +12966,10 @@
         <v>956</v>
       </c>
       <c r="C325" s="34" t="s">
-        <v>236</v>
-      </c>
-      <c r="D325" s="34">
-        <v>218</v>
+        <v>957</v>
+      </c>
+      <c r="D325" s="39" t="s">
+        <v>476</v>
       </c>
       <c r="E325" s="34" t="s">
         <v>166</v>
@@ -12905,8 +12997,8 @@
       <c r="C326" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D326" s="2">
-        <v>1002</v>
+      <c r="D326" s="40" t="s">
+        <v>604</v>
       </c>
       <c r="E326" s="2" t="s">
         <v>346</v>
@@ -12934,8 +13026,8 @@
       <c r="C327" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D327" s="2">
-        <v>1002</v>
+      <c r="D327" s="40" t="s">
+        <v>604</v>
       </c>
       <c r="E327" s="2" t="s">
         <v>347</v>
@@ -12963,8 +13055,8 @@
       <c r="C328" s="2" t="s">
         <v>957</v>
       </c>
-      <c r="D328" s="2">
-        <v>1610</v>
+      <c r="D328" s="40" t="s">
+        <v>810</v>
       </c>
       <c r="E328" s="2" t="s">
         <v>348</v>
@@ -12992,8 +13084,8 @@
       <c r="C329" s="2" t="s">
         <v>957</v>
       </c>
-      <c r="D329" s="2">
-        <v>1610</v>
+      <c r="D329" s="40" t="s">
+        <v>810</v>
       </c>
       <c r="E329" s="2" t="s">
         <v>349</v>
@@ -13021,8 +13113,8 @@
       <c r="C330" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="D330" s="2">
-        <v>1406</v>
+      <c r="D330" s="40" t="s">
+        <v>731</v>
       </c>
       <c r="E330" s="2" t="s">
         <v>317</v>
@@ -13050,8 +13142,8 @@
       <c r="C331" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D331" s="2">
-        <v>815</v>
+      <c r="D331" s="40" t="s">
+        <v>600</v>
       </c>
       <c r="E331" s="2" t="s">
         <v>350</v>
@@ -13079,8 +13171,8 @@
       <c r="C332" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D332" s="2">
-        <v>815</v>
+      <c r="D332" s="40" t="s">
+        <v>600</v>
       </c>
       <c r="E332" s="2" t="s">
         <v>351</v>
@@ -13108,8 +13200,8 @@
       <c r="C333" s="34" t="s">
         <v>957</v>
       </c>
-      <c r="D333" s="34">
-        <v>1610</v>
+      <c r="D333" s="39" t="s">
+        <v>810</v>
       </c>
       <c r="E333" s="34" t="s">
         <v>352</v>
@@ -13137,8 +13229,8 @@
       <c r="C334" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D334" s="2">
-        <v>216</v>
+      <c r="D334" s="40" t="s">
+        <v>514</v>
       </c>
       <c r="E334" s="2" t="s">
         <v>170</v>
@@ -13166,8 +13258,8 @@
       <c r="C335" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D335" s="2">
-        <v>57</v>
+      <c r="D335" s="40" t="s">
+        <v>492</v>
       </c>
       <c r="E335" s="2" t="s">
         <v>353</v>
@@ -13195,8 +13287,8 @@
       <c r="C336" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D336" s="2">
-        <v>71</v>
+      <c r="D336" s="40" t="s">
+        <v>497</v>
       </c>
       <c r="E336" s="2" t="s">
         <v>32</v>
@@ -13224,8 +13316,8 @@
       <c r="C337" s="34" t="s">
         <v>957</v>
       </c>
-      <c r="D337" s="34">
-        <v>1610</v>
+      <c r="D337" s="39" t="s">
+        <v>810</v>
       </c>
       <c r="E337" s="34" t="s">
         <v>354</v>
@@ -13253,8 +13345,8 @@
       <c r="C338" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D338" s="2">
-        <v>815</v>
+      <c r="D338" s="40" t="s">
+        <v>600</v>
       </c>
       <c r="E338" s="2" t="s">
         <v>355</v>
@@ -13282,8 +13374,8 @@
       <c r="C339" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D339" s="2">
-        <v>815</v>
+      <c r="D339" s="40" t="s">
+        <v>600</v>
       </c>
       <c r="E339" s="2" t="s">
         <v>356</v>
@@ -13311,8 +13403,8 @@
       <c r="C340" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D340" s="2">
-        <v>815</v>
+      <c r="D340" s="40" t="s">
+        <v>600</v>
       </c>
       <c r="E340" s="2" t="s">
         <v>357</v>
@@ -13340,8 +13432,8 @@
       <c r="C341" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="D341" s="2">
-        <v>1406</v>
+      <c r="D341" s="40" t="s">
+        <v>731</v>
       </c>
       <c r="E341" s="2" t="s">
         <v>358</v>
@@ -13369,8 +13461,8 @@
       <c r="C342" s="34" t="s">
         <v>236</v>
       </c>
-      <c r="D342" s="34">
-        <v>1583</v>
+      <c r="D342" s="39" t="s">
+        <v>806</v>
       </c>
       <c r="E342" s="34" t="s">
         <v>359</v>
@@ -13380,6 +13472,9 @@
       </c>
       <c r="G342" s="34" t="s">
         <v>965</v>
+      </c>
+      <c r="H342" s="7" t="s">
+        <v>493</v>
       </c>
       <c r="I342" s="36" t="s">
         <v>493</v>
@@ -13398,8 +13493,8 @@
       <c r="C343" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D343" s="2">
-        <v>8</v>
+      <c r="D343" s="40" t="s">
+        <v>475</v>
       </c>
       <c r="E343" s="2" t="s">
         <v>360</v>
@@ -13410,7 +13505,9 @@
       <c r="G343" s="2" t="s">
         <v>965</v>
       </c>
-      <c r="H343" s="7"/>
+      <c r="H343" s="7" t="s">
+        <v>493</v>
+      </c>
       <c r="I343" s="7" t="s">
         <v>493</v>
       </c>
@@ -13428,8 +13525,8 @@
       <c r="C344" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D344" s="2">
-        <v>1119</v>
+      <c r="D344" s="40" t="s">
+        <v>641</v>
       </c>
       <c r="E344" s="2" t="s">
         <v>361</v>
@@ -13457,8 +13554,8 @@
       <c r="C345" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D345" s="2">
-        <v>1181</v>
+      <c r="D345" s="40" t="s">
+        <v>614</v>
       </c>
       <c r="E345" s="2" t="s">
         <v>362</v>
@@ -13486,8 +13583,8 @@
       <c r="C346" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D346" s="2">
-        <v>1181</v>
+      <c r="D346" s="40" t="s">
+        <v>614</v>
       </c>
       <c r="E346" s="2" t="s">
         <v>363</v>
@@ -13515,8 +13612,8 @@
       <c r="C347" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="D347" s="2">
-        <v>1406</v>
+      <c r="D347" s="40" t="s">
+        <v>731</v>
       </c>
       <c r="E347" s="2" t="s">
         <v>364</v>
@@ -13544,8 +13641,8 @@
       <c r="C348" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D348" s="2">
-        <v>961</v>
+      <c r="D348" s="40" t="s">
+        <v>565</v>
       </c>
       <c r="E348" s="2" t="s">
         <v>365</v>
@@ -13573,8 +13670,8 @@
       <c r="C349" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="D349" s="2">
-        <v>1406</v>
+      <c r="D349" s="40" t="s">
+        <v>731</v>
       </c>
       <c r="E349" s="2" t="s">
         <v>366</v>
@@ -13602,8 +13699,8 @@
       <c r="C350" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D350" s="2">
-        <v>1002</v>
+      <c r="D350" s="40" t="s">
+        <v>604</v>
       </c>
       <c r="E350" s="2" t="s">
         <v>367</v>
@@ -13631,8 +13728,8 @@
       <c r="C351" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="D351" s="2">
-        <v>1406</v>
+      <c r="D351" s="40" t="s">
+        <v>731</v>
       </c>
       <c r="E351" s="2" t="s">
         <v>368</v>
@@ -13660,8 +13757,8 @@
       <c r="C352" s="34" t="s">
         <v>236</v>
       </c>
-      <c r="D352" s="34">
-        <v>1404</v>
+      <c r="D352" s="39" t="s">
+        <v>730</v>
       </c>
       <c r="E352" s="34" t="s">
         <v>369</v>
@@ -13689,8 +13786,8 @@
       <c r="C353" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D353" s="2">
-        <v>961</v>
+      <c r="D353" s="40" t="s">
+        <v>565</v>
       </c>
       <c r="E353" s="2" t="s">
         <v>370</v>
@@ -13718,8 +13815,8 @@
       <c r="C354" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D354" s="2">
-        <v>1181</v>
+      <c r="D354" s="40" t="s">
+        <v>614</v>
       </c>
       <c r="E354" s="2" t="s">
         <v>371</v>
@@ -13747,8 +13844,8 @@
       <c r="C355" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D355" s="2">
-        <v>1002</v>
+      <c r="D355" s="40" t="s">
+        <v>604</v>
       </c>
       <c r="E355" s="2" t="s">
         <v>372</v>
@@ -13776,8 +13873,8 @@
       <c r="C356" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D356" s="2">
-        <v>475</v>
+      <c r="D356" s="40" t="s">
+        <v>518</v>
       </c>
       <c r="E356" s="2" t="s">
         <v>373</v>
@@ -13805,8 +13902,8 @@
       <c r="C357" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D357" s="2">
-        <v>475</v>
+      <c r="D357" s="40" t="s">
+        <v>518</v>
       </c>
       <c r="E357" s="2" t="s">
         <v>53</v>
@@ -13834,8 +13931,8 @@
       <c r="C358" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D358" s="2">
-        <v>475</v>
+      <c r="D358" s="40" t="s">
+        <v>518</v>
       </c>
       <c r="E358" s="2" t="s">
         <v>374</v>
@@ -13863,8 +13960,8 @@
       <c r="C359" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D359" s="2">
-        <v>591</v>
+      <c r="D359" s="40" t="s">
+        <v>573</v>
       </c>
       <c r="E359" s="2" t="s">
         <v>375</v>
@@ -13892,8 +13989,8 @@
       <c r="C360" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D360" s="2">
-        <v>1181</v>
+      <c r="D360" s="40" t="s">
+        <v>614</v>
       </c>
       <c r="E360" s="2" t="s">
         <v>376</v>
@@ -13921,8 +14018,8 @@
       <c r="C361" s="34" t="s">
         <v>236</v>
       </c>
-      <c r="D361" s="34">
-        <v>1583</v>
+      <c r="D361" s="39" t="s">
+        <v>806</v>
       </c>
       <c r="E361" s="34" t="s">
         <v>377</v>
@@ -13932,6 +14029,9 @@
       </c>
       <c r="G361" s="34" t="s">
         <v>965</v>
+      </c>
+      <c r="H361" s="7" t="s">
+        <v>493</v>
       </c>
       <c r="I361" s="36" t="s">
         <v>493</v>
@@ -13950,8 +14050,8 @@
       <c r="C362" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D362" s="2">
-        <v>1002</v>
+      <c r="D362" s="40" t="s">
+        <v>604</v>
       </c>
       <c r="E362" s="2" t="s">
         <v>197</v>
@@ -13979,8 +14079,8 @@
       <c r="C363" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="D363" s="2">
-        <v>1406</v>
+      <c r="D363" s="40" t="s">
+        <v>731</v>
       </c>
       <c r="E363" s="2" t="s">
         <v>378</v>
@@ -14008,8 +14108,8 @@
       <c r="C364" s="32" t="s">
         <v>115</v>
       </c>
-      <c r="D364" s="32">
-        <v>1181</v>
+      <c r="D364" s="42" t="s">
+        <v>614</v>
       </c>
       <c r="E364" s="32" t="s">
         <v>379</v>
@@ -14037,8 +14137,8 @@
       <c r="C365" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D365" s="2">
-        <v>1181</v>
+      <c r="D365" s="40" t="s">
+        <v>614</v>
       </c>
       <c r="E365" s="2" t="s">
         <v>380</v>
@@ -14066,8 +14166,8 @@
       <c r="C366" s="34" t="s">
         <v>957</v>
       </c>
-      <c r="D366" s="34">
-        <v>1634</v>
+      <c r="D366" s="39" t="s">
+        <v>842</v>
       </c>
       <c r="E366" s="34" t="s">
         <v>150</v>
@@ -14095,8 +14195,8 @@
       <c r="C367" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="D367" s="2">
-        <v>1406</v>
+      <c r="D367" s="40" t="s">
+        <v>731</v>
       </c>
       <c r="E367" s="2" t="s">
         <v>381</v>
@@ -14124,8 +14224,8 @@
       <c r="C368" s="2" t="s">
         <v>957</v>
       </c>
-      <c r="D368" s="2">
-        <v>1610</v>
+      <c r="D368" s="40" t="s">
+        <v>810</v>
       </c>
       <c r="E368" s="2" t="s">
         <v>382</v>
@@ -14153,8 +14253,8 @@
       <c r="C369" s="31" t="s">
         <v>957</v>
       </c>
-      <c r="D369" s="2">
-        <v>1634</v>
+      <c r="D369" s="40" t="s">
+        <v>842</v>
       </c>
       <c r="E369" s="2" t="s">
         <v>383</v>
@@ -14182,8 +14282,8 @@
       <c r="C370" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D370" s="2">
-        <v>681</v>
+      <c r="D370" s="40" t="s">
+        <v>585</v>
       </c>
       <c r="E370" s="2" t="s">
         <v>384</v>
@@ -14211,8 +14311,8 @@
       <c r="C371" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D371" s="2">
-        <v>229</v>
+      <c r="D371" s="40" t="s">
+        <v>480</v>
       </c>
       <c r="E371" s="2" t="s">
         <v>385</v>
@@ -14240,8 +14340,8 @@
       <c r="C372" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D372" s="2">
-        <v>1611</v>
+      <c r="D372" s="40" t="s">
+        <v>824</v>
       </c>
       <c r="E372" s="2" t="s">
         <v>386</v>
@@ -14269,8 +14369,8 @@
       <c r="C373" s="31" t="s">
         <v>957</v>
       </c>
-      <c r="D373" s="2">
-        <v>1634</v>
+      <c r="D373" s="40" t="s">
+        <v>842</v>
       </c>
       <c r="E373" s="2" t="s">
         <v>387</v>
@@ -14298,8 +14398,8 @@
       <c r="C374" s="2" t="s">
         <v>957</v>
       </c>
-      <c r="D374" s="2">
-        <v>1610</v>
+      <c r="D374" s="40" t="s">
+        <v>810</v>
       </c>
       <c r="E374" s="2" t="s">
         <v>176</v>
@@ -14327,8 +14427,8 @@
       <c r="C375" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D375" s="2">
-        <v>815</v>
+      <c r="D375" s="40" t="s">
+        <v>600</v>
       </c>
       <c r="E375" s="2" t="s">
         <v>388</v>
@@ -14356,8 +14456,8 @@
       <c r="C376" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D376" s="2">
-        <v>1181</v>
+      <c r="D376" s="40" t="s">
+        <v>614</v>
       </c>
       <c r="E376" s="2" t="s">
         <v>54</v>
@@ -14385,8 +14485,8 @@
       <c r="C377" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D377" s="2">
-        <v>201</v>
+      <c r="D377" s="40" t="s">
+        <v>511</v>
       </c>
       <c r="E377" s="2" t="s">
         <v>389</v>
@@ -14414,8 +14514,8 @@
       <c r="C378" s="31" t="s">
         <v>957</v>
       </c>
-      <c r="D378" s="2">
-        <v>1634</v>
+      <c r="D378" s="40" t="s">
+        <v>842</v>
       </c>
       <c r="E378" s="2" t="s">
         <v>390</v>
@@ -14443,8 +14543,8 @@
       <c r="C379" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D379" s="2">
-        <v>135</v>
+      <c r="D379" s="40" t="s">
+        <v>504</v>
       </c>
       <c r="E379" s="2" t="s">
         <v>391</v>
@@ -14472,8 +14572,8 @@
       <c r="C380" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D380" s="2">
-        <v>1002</v>
+      <c r="D380" s="40" t="s">
+        <v>604</v>
       </c>
       <c r="E380" s="2" t="s">
         <v>392</v>
@@ -14501,8 +14601,8 @@
       <c r="C381" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D381" s="2">
-        <v>934</v>
+      <c r="D381" s="40" t="s">
+        <v>616</v>
       </c>
       <c r="E381" s="2" t="s">
         <v>393</v>
@@ -14530,8 +14630,8 @@
       <c r="C382" s="2" t="s">
         <v>957</v>
       </c>
-      <c r="D382" s="2">
-        <v>1610</v>
+      <c r="D382" s="40" t="s">
+        <v>810</v>
       </c>
       <c r="E382" s="2" t="s">
         <v>394</v>
@@ -14559,8 +14659,8 @@
       <c r="C383" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D383" s="2">
-        <v>418</v>
+      <c r="D383" s="40" t="s">
+        <v>509</v>
       </c>
       <c r="E383" s="2" t="s">
         <v>395</v>
@@ -14588,8 +14688,8 @@
       <c r="C384" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D384" s="2">
-        <v>591</v>
+      <c r="D384" s="40" t="s">
+        <v>573</v>
       </c>
       <c r="E384" s="2" t="s">
         <v>396</v>
@@ -14617,8 +14717,8 @@
       <c r="C385" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D385" s="2">
-        <v>201</v>
+      <c r="D385" s="40" t="s">
+        <v>511</v>
       </c>
       <c r="E385" s="2" t="s">
         <v>397</v>
@@ -14646,8 +14746,8 @@
       <c r="C386" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D386" s="2">
-        <v>201</v>
+      <c r="D386" s="40" t="s">
+        <v>511</v>
       </c>
       <c r="E386" s="2" t="s">
         <v>398</v>
@@ -14675,8 +14775,8 @@
       <c r="C387" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D387" s="2">
-        <v>1181</v>
+      <c r="D387" s="40" t="s">
+        <v>614</v>
       </c>
       <c r="E387" s="2" t="s">
         <v>399</v>
@@ -14704,8 +14804,8 @@
       <c r="C388" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D388" s="2">
-        <v>1203</v>
+      <c r="D388" s="40" t="s">
+        <v>660</v>
       </c>
       <c r="E388" s="2" t="s">
         <v>400</v>
@@ -14733,8 +14833,8 @@
       <c r="C389" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D389" s="2">
-        <v>934</v>
+      <c r="D389" s="40" t="s">
+        <v>616</v>
       </c>
       <c r="E389" s="2" t="s">
         <v>401</v>
@@ -14762,8 +14862,8 @@
       <c r="C390" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D390" s="2">
-        <v>1203</v>
+      <c r="D390" s="40" t="s">
+        <v>660</v>
       </c>
       <c r="E390" s="2" t="s">
         <v>402</v>
@@ -14791,8 +14891,8 @@
       <c r="C391" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="D391" s="29">
-        <v>44</v>
+      <c r="D391" s="41" t="s">
+        <v>489</v>
       </c>
       <c r="E391" s="34" t="s">
         <v>403</v>
@@ -14820,8 +14920,8 @@
       <c r="C392" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D392" s="2">
-        <v>1181</v>
+      <c r="D392" s="40" t="s">
+        <v>614</v>
       </c>
       <c r="E392" s="2" t="s">
         <v>404</v>
@@ -14849,8 +14949,8 @@
       <c r="C393" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D393" s="2">
-        <v>123</v>
+      <c r="D393" s="40" t="s">
+        <v>503</v>
       </c>
       <c r="E393" s="2" t="s">
         <v>405</v>
@@ -14878,8 +14978,8 @@
       <c r="C394" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D394" s="2">
-        <v>1181</v>
+      <c r="D394" s="40" t="s">
+        <v>614</v>
       </c>
       <c r="E394" s="2" t="s">
         <v>406</v>
@@ -14907,8 +15007,8 @@
       <c r="C395" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D395" s="2">
-        <v>961</v>
+      <c r="D395" s="40" t="s">
+        <v>565</v>
       </c>
       <c r="E395" s="2" t="s">
         <v>407</v>
@@ -14936,8 +15036,8 @@
       <c r="C396" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D396" s="2">
-        <v>1119</v>
+      <c r="D396" s="40" t="s">
+        <v>641</v>
       </c>
       <c r="E396" s="2" t="s">
         <v>408</v>
@@ -14965,8 +15065,8 @@
       <c r="C397" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D397" s="2">
-        <v>1611</v>
+      <c r="D397" s="40" t="s">
+        <v>824</v>
       </c>
       <c r="E397" s="2" t="s">
         <v>409</v>
@@ -14994,8 +15094,8 @@
       <c r="C398" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D398" s="2">
-        <v>475</v>
+      <c r="D398" s="40" t="s">
+        <v>518</v>
       </c>
       <c r="E398" s="2" t="s">
         <v>410</v>
@@ -15023,8 +15123,8 @@
       <c r="C399" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D399" s="2">
-        <v>1119</v>
+      <c r="D399" s="40" t="s">
+        <v>641</v>
       </c>
       <c r="E399" s="2" t="s">
         <v>411</v>
@@ -15052,8 +15152,8 @@
       <c r="C400" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D400" s="2">
-        <v>591</v>
+      <c r="D400" s="40" t="s">
+        <v>573</v>
       </c>
       <c r="E400" s="2" t="s">
         <v>412</v>
@@ -15081,8 +15181,8 @@
       <c r="C401" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D401" s="2">
-        <v>475</v>
+      <c r="D401" s="40" t="s">
+        <v>518</v>
       </c>
       <c r="E401" s="2" t="s">
         <v>197</v>
@@ -15110,8 +15210,8 @@
       <c r="C402" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D402" s="2">
-        <v>1181</v>
+      <c r="D402" s="40" t="s">
+        <v>614</v>
       </c>
       <c r="E402" s="2" t="s">
         <v>413</v>
@@ -15139,8 +15239,8 @@
       <c r="C403" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D403" s="2">
-        <v>216</v>
+      <c r="D403" s="40" t="s">
+        <v>514</v>
       </c>
       <c r="E403" s="2" t="s">
         <v>414</v>
@@ -15168,8 +15268,8 @@
       <c r="C404" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D404" s="2">
-        <v>418</v>
+      <c r="D404" s="40" t="s">
+        <v>509</v>
       </c>
       <c r="E404" s="2" t="s">
         <v>415</v>
@@ -15197,8 +15297,8 @@
       <c r="C405" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D405" s="2">
-        <v>1181</v>
+      <c r="D405" s="40" t="s">
+        <v>614</v>
       </c>
       <c r="E405" s="2" t="s">
         <v>416</v>
@@ -15226,8 +15326,8 @@
       <c r="C406" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D406" s="2">
-        <v>934</v>
+      <c r="D406" s="40" t="s">
+        <v>616</v>
       </c>
       <c r="E406" s="2" t="s">
         <v>417</v>
@@ -15255,8 +15355,8 @@
       <c r="C407" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D407" s="2">
-        <v>934</v>
+      <c r="D407" s="40" t="s">
+        <v>616</v>
       </c>
       <c r="E407" s="2" t="s">
         <v>418</v>
@@ -15284,8 +15384,8 @@
       <c r="C408" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D408" s="2">
-        <v>961</v>
+      <c r="D408" s="40" t="s">
+        <v>565</v>
       </c>
       <c r="E408" s="2" t="s">
         <v>419</v>
@@ -15313,8 +15413,8 @@
       <c r="C409" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="D409" s="2">
-        <v>1406</v>
+      <c r="D409" s="40" t="s">
+        <v>731</v>
       </c>
       <c r="E409" s="2" t="s">
         <v>420</v>
@@ -15342,8 +15442,8 @@
       <c r="C410" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D410" s="2">
-        <v>1181</v>
+      <c r="D410" s="40" t="s">
+        <v>614</v>
       </c>
       <c r="E410" s="2" t="s">
         <v>421</v>
@@ -15371,8 +15471,8 @@
       <c r="C411" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D411" s="2">
-        <v>418</v>
+      <c r="D411" s="40" t="s">
+        <v>509</v>
       </c>
       <c r="E411" s="2" t="s">
         <v>422</v>
@@ -15400,8 +15500,8 @@
       <c r="C412" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D412" s="2">
-        <v>209</v>
+      <c r="D412" s="40" t="s">
+        <v>495</v>
       </c>
       <c r="E412" s="2" t="s">
         <v>423</v>
@@ -15429,8 +15529,8 @@
       <c r="C413" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D413" s="2">
-        <v>1002</v>
+      <c r="D413" s="40" t="s">
+        <v>604</v>
       </c>
       <c r="E413" s="2" t="s">
         <v>424</v>
@@ -15458,8 +15558,8 @@
       <c r="C414" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D414" s="2">
-        <v>135</v>
+      <c r="D414" s="40" t="s">
+        <v>504</v>
       </c>
       <c r="E414" s="2" t="s">
         <v>82</v>
@@ -15487,8 +15587,8 @@
       <c r="C415" s="34" t="s">
         <v>236</v>
       </c>
-      <c r="D415" s="34">
-        <v>1406</v>
+      <c r="D415" s="39" t="s">
+        <v>731</v>
       </c>
       <c r="E415" s="34" t="s">
         <v>425</v>
@@ -15516,8 +15616,8 @@
       <c r="C416" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="D416" s="2">
-        <v>1404</v>
+      <c r="D416" s="40" t="s">
+        <v>730</v>
       </c>
       <c r="E416" s="2" t="s">
         <v>426</v>
@@ -15545,8 +15645,8 @@
       <c r="C417" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D417" s="2">
-        <v>961</v>
+      <c r="D417" s="40" t="s">
+        <v>565</v>
       </c>
       <c r="E417" s="2" t="s">
         <v>45</v>
@@ -15574,8 +15674,8 @@
       <c r="C418" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D418" s="2">
-        <v>208</v>
+      <c r="D418" s="40" t="s">
+        <v>513</v>
       </c>
       <c r="E418" s="2" t="s">
         <v>427</v>
@@ -15603,8 +15703,8 @@
       <c r="C419" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D419" s="2">
-        <v>1002</v>
+      <c r="D419" s="40" t="s">
+        <v>604</v>
       </c>
       <c r="E419" s="2" t="s">
         <v>428</v>
@@ -15632,8 +15732,8 @@
       <c r="C420" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D420" s="2">
-        <v>287</v>
+      <c r="D420" s="40" t="s">
+        <v>520</v>
       </c>
       <c r="E420" s="2" t="s">
         <v>429</v>
@@ -15661,8 +15761,8 @@
       <c r="C421" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D421" s="2">
-        <v>475</v>
+      <c r="D421" s="40" t="s">
+        <v>518</v>
       </c>
       <c r="E421" s="2" t="s">
         <v>430</v>
@@ -15690,8 +15790,8 @@
       <c r="C422" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D422" s="2">
-        <v>305</v>
+      <c r="D422" s="40" t="s">
+        <v>523</v>
       </c>
       <c r="E422" s="2" t="s">
         <v>431</v>
@@ -15719,8 +15819,8 @@
       <c r="C423" s="34" t="s">
         <v>236</v>
       </c>
-      <c r="D423" s="34">
-        <v>1406</v>
+      <c r="D423" s="39" t="s">
+        <v>731</v>
       </c>
       <c r="E423" s="34" t="s">
         <v>432</v>
@@ -15748,8 +15848,8 @@
       <c r="C424" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D424" s="2">
-        <v>430</v>
+      <c r="D424" s="40" t="s">
+        <v>535</v>
       </c>
       <c r="E424" s="2" t="s">
         <v>46</v>
@@ -15777,8 +15877,8 @@
       <c r="C425" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D425" s="2">
-        <v>400</v>
+      <c r="D425" s="40" t="s">
+        <v>547</v>
       </c>
       <c r="E425" s="2" t="s">
         <v>433</v>
@@ -15806,8 +15906,8 @@
       <c r="C426" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D426" s="2">
-        <v>418</v>
+      <c r="D426" s="40" t="s">
+        <v>509</v>
       </c>
       <c r="E426" s="2" t="s">
         <v>434</v>
@@ -15835,8 +15935,8 @@
       <c r="C427" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D427" s="2">
-        <v>475</v>
+      <c r="D427" s="40" t="s">
+        <v>518</v>
       </c>
       <c r="E427" s="2" t="s">
         <v>435</v>
@@ -15864,8 +15964,8 @@
       <c r="C428" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="D428" s="2">
-        <v>1404</v>
+      <c r="D428" s="40" t="s">
+        <v>730</v>
       </c>
       <c r="E428" s="2" t="s">
         <v>436</v>
@@ -15893,8 +15993,8 @@
       <c r="C429" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D429" s="2">
-        <v>681</v>
+      <c r="D429" s="40" t="s">
+        <v>585</v>
       </c>
       <c r="E429" s="2" t="s">
         <v>222</v>
@@ -15922,8 +16022,8 @@
       <c r="C430" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D430" s="2">
-        <v>162</v>
+      <c r="D430" s="40" t="s">
+        <v>507</v>
       </c>
       <c r="E430" s="2" t="s">
         <v>437</v>
@@ -15951,8 +16051,8 @@
       <c r="C431" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="D431" s="2">
-        <v>1404</v>
+      <c r="D431" s="40" t="s">
+        <v>730</v>
       </c>
       <c r="E431" s="2" t="s">
         <v>438</v>
@@ -15980,8 +16080,8 @@
       <c r="C432" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D432" s="2">
-        <v>1181</v>
+      <c r="D432" s="40" t="s">
+        <v>614</v>
       </c>
       <c r="E432" s="2" t="s">
         <v>439</v>
@@ -16009,8 +16109,8 @@
       <c r="C433" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="D433" s="2">
-        <v>1406</v>
+      <c r="D433" s="40" t="s">
+        <v>731</v>
       </c>
       <c r="E433" s="2" t="s">
         <v>440</v>
@@ -16038,8 +16138,8 @@
       <c r="C434" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="D434" s="32">
-        <v>294</v>
+      <c r="D434" s="42" t="s">
+        <v>521</v>
       </c>
       <c r="E434" s="32" t="s">
         <v>441</v>
@@ -16067,8 +16167,8 @@
       <c r="C435" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D435" s="2">
-        <v>934</v>
+      <c r="D435" s="40" t="s">
+        <v>616</v>
       </c>
       <c r="E435" s="2" t="s">
         <v>442</v>
@@ -16096,8 +16196,8 @@
       <c r="C436" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D436" s="2">
-        <v>1181</v>
+      <c r="D436" s="40" t="s">
+        <v>614</v>
       </c>
       <c r="E436" s="2" t="s">
         <v>443</v>
@@ -16125,8 +16225,8 @@
       <c r="C437" s="32" t="s">
         <v>115</v>
       </c>
-      <c r="D437" s="32">
-        <v>1181</v>
+      <c r="D437" s="42" t="s">
+        <v>614</v>
       </c>
       <c r="E437" s="32" t="s">
         <v>444</v>
@@ -16154,8 +16254,8 @@
       <c r="C438" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D438" s="2">
-        <v>934</v>
+      <c r="D438" s="40" t="s">
+        <v>616</v>
       </c>
       <c r="E438" s="2" t="s">
         <v>445</v>
@@ -16183,8 +16283,8 @@
       <c r="C439" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D439" s="2">
-        <v>425</v>
+      <c r="D439" s="40" t="s">
+        <v>528</v>
       </c>
       <c r="E439" s="2" t="s">
         <v>446</v>
@@ -16212,8 +16312,8 @@
       <c r="C440" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D440" s="2">
-        <v>162</v>
+      <c r="D440" s="40" t="s">
+        <v>507</v>
       </c>
       <c r="E440" s="2" t="s">
         <v>195</v>
@@ -16241,8 +16341,8 @@
       <c r="C441" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D441" s="2">
-        <v>400</v>
+      <c r="D441" s="40" t="s">
+        <v>547</v>
       </c>
       <c r="E441" s="2" t="s">
         <v>447</v>
@@ -16270,8 +16370,8 @@
       <c r="C442" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D442" s="2">
-        <v>681</v>
+      <c r="D442" s="40" t="s">
+        <v>585</v>
       </c>
       <c r="E442" s="2" t="s">
         <v>448</v>
@@ -16299,8 +16399,8 @@
       <c r="C443" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D443" s="2">
-        <v>961</v>
+      <c r="D443" s="40" t="s">
+        <v>565</v>
       </c>
       <c r="E443" s="2" t="s">
         <v>449</v>
@@ -16328,8 +16428,8 @@
       <c r="C444" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D444" s="2">
-        <v>216</v>
+      <c r="D444" s="40" t="s">
+        <v>514</v>
       </c>
       <c r="E444" s="2" t="s">
         <v>450</v>
@@ -16357,8 +16457,8 @@
       <c r="C445" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D445" s="2">
-        <v>988</v>
+      <c r="D445" s="40" t="s">
+        <v>541</v>
       </c>
       <c r="E445" s="2" t="s">
         <v>451</v>
@@ -16386,8 +16486,8 @@
       <c r="C446" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D446" s="2">
-        <v>277</v>
+      <c r="D446" s="40" t="s">
+        <v>516</v>
       </c>
       <c r="E446" s="2" t="s">
         <v>452</v>
@@ -16415,8 +16515,8 @@
       <c r="C447" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D447" s="2">
-        <v>475</v>
+      <c r="D447" s="40" t="s">
+        <v>518</v>
       </c>
       <c r="E447" s="2" t="s">
         <v>453</v>
@@ -16444,8 +16544,8 @@
       <c r="C448" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D448" s="2">
-        <v>815</v>
+      <c r="D448" s="40" t="s">
+        <v>600</v>
       </c>
       <c r="E448" s="2" t="s">
         <v>454</v>
@@ -16473,8 +16573,8 @@
       <c r="C449" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D449" s="2">
-        <v>418</v>
+      <c r="D449" s="40" t="s">
+        <v>509</v>
       </c>
       <c r="E449" s="2" t="s">
         <v>123</v>
@@ -16502,8 +16602,8 @@
       <c r="C450" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D450" s="2">
-        <v>162</v>
+      <c r="D450" s="40" t="s">
+        <v>507</v>
       </c>
       <c r="E450" s="2" t="s">
         <v>455</v>
@@ -16531,8 +16631,8 @@
       <c r="C451" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D451" s="2">
-        <v>162</v>
+      <c r="D451" s="40" t="s">
+        <v>507</v>
       </c>
       <c r="E451" s="2" t="s">
         <v>456</v>
@@ -16560,8 +16660,8 @@
       <c r="C452" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D452" s="2">
-        <v>400</v>
+      <c r="D452" s="40" t="s">
+        <v>547</v>
       </c>
       <c r="E452" s="2" t="s">
         <v>457</v>
@@ -16589,8 +16689,8 @@
       <c r="C453" s="34" t="s">
         <v>236</v>
       </c>
-      <c r="D453" s="34">
-        <v>1406</v>
+      <c r="D453" s="39" t="s">
+        <v>731</v>
       </c>
       <c r="E453" s="34" t="s">
         <v>458</v>
@@ -16618,8 +16718,8 @@
       <c r="C454" s="32" t="s">
         <v>957</v>
       </c>
-      <c r="D454" s="32">
-        <v>1634</v>
+      <c r="D454" s="42" t="s">
+        <v>842</v>
       </c>
       <c r="E454" s="32" t="s">
         <v>459</v>
@@ -16647,8 +16747,8 @@
       <c r="C455" s="32" t="s">
         <v>115</v>
       </c>
-      <c r="D455" s="32">
-        <v>961</v>
+      <c r="D455" s="42" t="s">
+        <v>565</v>
       </c>
       <c r="E455" s="32" t="s">
         <v>460</v>
@@ -16676,8 +16776,8 @@
       <c r="C456" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="D456" s="32">
-        <v>1611</v>
+      <c r="D456" s="42" t="s">
+        <v>824</v>
       </c>
       <c r="E456" s="32" t="s">
         <v>461</v>
@@ -16705,8 +16805,8 @@
       <c r="C457" s="32" t="s">
         <v>115</v>
       </c>
-      <c r="D457" s="32">
-        <v>1181</v>
+      <c r="D457" s="42" t="s">
+        <v>614</v>
       </c>
       <c r="E457" s="32" t="s">
         <v>462</v>
@@ -16734,8 +16834,8 @@
       <c r="C458" s="32" t="s">
         <v>236</v>
       </c>
-      <c r="D458" s="32">
-        <v>1583</v>
+      <c r="D458" s="42" t="s">
+        <v>806</v>
       </c>
       <c r="E458" s="32" t="s">
         <v>205</v>
@@ -16745,6 +16845,9 @@
       </c>
       <c r="G458" s="32" t="s">
         <v>965</v>
+      </c>
+      <c r="H458" s="7" t="s">
+        <v>493</v>
       </c>
       <c r="I458" s="15" t="s">
         <v>493</v>
@@ -16763,7 +16866,7 @@
       <c r="C459" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="D459" s="24"/>
+      <c r="D459" s="43"/>
       <c r="E459" s="24" t="s">
         <v>934</v>
       </c>
@@ -16794,7 +16897,7 @@
       <c r="C460" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="D460" s="24"/>
+      <c r="D460" s="43"/>
       <c r="E460" s="24" t="s">
         <v>936</v>
       </c>
@@ -16825,7 +16928,7 @@
       <c r="C461" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D461" s="24"/>
+      <c r="D461" s="43"/>
       <c r="E461" s="24" t="s">
         <v>938</v>
       </c>
@@ -16856,7 +16959,7 @@
       <c r="C462" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="D462" s="24"/>
+      <c r="D462" s="43"/>
       <c r="E462" s="24" t="s">
         <v>940</v>
       </c>
@@ -16887,7 +16990,7 @@
       <c r="C463" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="D463" s="27"/>
+      <c r="D463" s="44"/>
       <c r="E463" s="27" t="s">
         <v>942</v>
       </c>
@@ -16925,7 +17028,7 @@
       <c r="C464" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="D464" s="24"/>
+      <c r="D464" s="43"/>
       <c r="E464" s="24" t="s">
         <v>944</v>
       </c>
@@ -16963,7 +17066,7 @@
       <c r="C465" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="D465" s="24"/>
+      <c r="D465" s="43"/>
       <c r="E465" s="24" t="s">
         <v>946</v>
       </c>
@@ -17001,7 +17104,7 @@
       <c r="C466" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="D466" s="24"/>
+      <c r="D466" s="43"/>
       <c r="E466" s="24" t="s">
         <v>948</v>
       </c>
@@ -17039,7 +17142,7 @@
       <c r="C467" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="D467" s="24"/>
+      <c r="D467" s="43"/>
       <c r="E467" s="24" t="s">
         <v>950</v>
       </c>
@@ -17077,7 +17180,7 @@
       <c r="C468" s="24" t="s">
         <v>236</v>
       </c>
-      <c r="D468" s="24"/>
+      <c r="D468" s="43"/>
       <c r="E468" s="24" t="s">
         <v>952</v>
       </c>
@@ -17115,8 +17218,8 @@
       <c r="C469" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="D469" s="17">
-        <v>1038</v>
+      <c r="D469" s="47" t="s">
+        <v>619</v>
       </c>
       <c r="E469" s="18" t="s">
         <v>954</v>
@@ -17153,7 +17256,7 @@
       <c r="C470" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D470" s="13"/>
+      <c r="D470" s="45"/>
       <c r="E470" s="13" t="s">
         <v>11</v>
       </c>
@@ -17191,7 +17294,7 @@
       <c r="C471" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D471" s="13"/>
+      <c r="D471" s="45"/>
       <c r="E471" s="13" t="s">
         <v>49</v>
       </c>
@@ -17299,4 +17402,4173 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B470"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B457"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetData>
+    <row r="1" spans="1:2" ht="14.25">
+      <c r="A1" s="34">
+        <v>218</v>
+      </c>
+      <c r="B1" t="str">
+        <f>TEXT(A1,"000000")</f>
+        <v>000218</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="14.25">
+      <c r="A2" s="2">
+        <v>229</v>
+      </c>
+      <c r="B2" s="5" t="str">
+        <f t="shared" ref="B2:B65" si="0">TEXT(A2,"000000")</f>
+        <v>000229</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="14.25">
+      <c r="A3" s="2">
+        <v>202</v>
+      </c>
+      <c r="B3" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>000202</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="14.25">
+      <c r="A4" s="2">
+        <v>136</v>
+      </c>
+      <c r="B4" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>000136</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="14.25">
+      <c r="A5" s="34">
+        <v>218</v>
+      </c>
+      <c r="B5" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>000218</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="14.25">
+      <c r="A6" s="2">
+        <v>218</v>
+      </c>
+      <c r="B6" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>000218</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="14.25">
+      <c r="A7" s="2">
+        <v>41</v>
+      </c>
+      <c r="B7" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>000041</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="14.25">
+      <c r="A8" s="2">
+        <v>51</v>
+      </c>
+      <c r="B8" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>000051</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="14.25">
+      <c r="A9" s="2">
+        <v>209</v>
+      </c>
+      <c r="B9" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>000209</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="14.25">
+      <c r="A10" s="2">
+        <v>71</v>
+      </c>
+      <c r="B10" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>000071</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="14.25">
+      <c r="A11" s="2">
+        <v>218</v>
+      </c>
+      <c r="B11" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>000218</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="14.25">
+      <c r="A12" s="2">
+        <v>202</v>
+      </c>
+      <c r="B12" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>000202</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="14.25">
+      <c r="A13" s="2">
+        <v>63</v>
+      </c>
+      <c r="B13" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>000063</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="14.25">
+      <c r="A14" s="2">
+        <v>51</v>
+      </c>
+      <c r="B14" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>000051</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="14.25">
+      <c r="A15" s="2">
+        <v>234</v>
+      </c>
+      <c r="B15" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>000234</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="14.25">
+      <c r="A16" s="2">
+        <v>51</v>
+      </c>
+      <c r="B16" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>000051</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="14.25">
+      <c r="A17" s="2">
+        <v>179</v>
+      </c>
+      <c r="B17" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>000179</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="14.25">
+      <c r="A18" s="2">
+        <v>41</v>
+      </c>
+      <c r="B18" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>000041</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="14.25">
+      <c r="A19" s="34">
+        <v>41</v>
+      </c>
+      <c r="B19" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>000041</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="14.25">
+      <c r="A20" s="2">
+        <v>179</v>
+      </c>
+      <c r="B20" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>000179</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="14.25">
+      <c r="A21" s="2">
+        <v>418</v>
+      </c>
+      <c r="B21" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>000418</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="14.25">
+      <c r="A22" s="2">
+        <v>57</v>
+      </c>
+      <c r="B22" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>000057</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="14.25">
+      <c r="A23" s="2">
+        <v>41</v>
+      </c>
+      <c r="B23" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>000041</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="14.25">
+      <c r="A24" s="2">
+        <v>44</v>
+      </c>
+      <c r="B24" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>000044</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="14.25">
+      <c r="A25" s="2">
+        <v>63</v>
+      </c>
+      <c r="B25" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>000063</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="14.25">
+      <c r="A26" s="2">
+        <v>208</v>
+      </c>
+      <c r="B26" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>000208</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="14.25">
+      <c r="A27" s="2">
+        <v>44</v>
+      </c>
+      <c r="B27" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>000044</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="14.25">
+      <c r="A28" s="2">
+        <v>51</v>
+      </c>
+      <c r="B28" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>000051</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="14.25">
+      <c r="A29" s="2">
+        <v>146</v>
+      </c>
+      <c r="B29" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>000146</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="14.25">
+      <c r="A30" s="2">
+        <v>202</v>
+      </c>
+      <c r="B30" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>000202</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="14.25">
+      <c r="A31" s="2">
+        <v>63</v>
+      </c>
+      <c r="B31" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>000063</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="14.25">
+      <c r="A32" s="2">
+        <v>44</v>
+      </c>
+      <c r="B32" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>000044</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="14.25">
+      <c r="A33" s="2">
+        <v>8</v>
+      </c>
+      <c r="B33" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>000008</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="14.25">
+      <c r="A34" s="2">
+        <v>475</v>
+      </c>
+      <c r="B34" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>000475</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="14.25">
+      <c r="A35" s="34">
+        <v>218</v>
+      </c>
+      <c r="B35" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>000218</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="14.25">
+      <c r="A36" s="2">
+        <v>44</v>
+      </c>
+      <c r="B36" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>000044</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="14.25">
+      <c r="A37" s="2">
+        <v>63</v>
+      </c>
+      <c r="B37" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>000063</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="14.25">
+      <c r="A38" s="2">
+        <v>287</v>
+      </c>
+      <c r="B38" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>000287</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="14.25">
+      <c r="A39" s="2">
+        <v>44</v>
+      </c>
+      <c r="B39" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>000044</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="14.25">
+      <c r="A40" s="2">
+        <v>208</v>
+      </c>
+      <c r="B40" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>000208</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="14.25">
+      <c r="A41" s="2">
+        <v>201</v>
+      </c>
+      <c r="B41" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>000201</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="14.25">
+      <c r="A42" s="2">
+        <v>201</v>
+      </c>
+      <c r="B42" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>000201</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="14.25">
+      <c r="A43" s="2">
+        <v>425</v>
+      </c>
+      <c r="B43" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>000425</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="14.25">
+      <c r="A44" s="2">
+        <v>443</v>
+      </c>
+      <c r="B44" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>000443</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="14.25">
+      <c r="A45" s="2">
+        <v>135</v>
+      </c>
+      <c r="B45" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>000135</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="14.25">
+      <c r="A46" s="2">
+        <v>162</v>
+      </c>
+      <c r="B46" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>000162</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="14.25">
+      <c r="A47" s="2">
+        <v>162</v>
+      </c>
+      <c r="B47" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>000162</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="14.25">
+      <c r="A48" s="2">
+        <v>430</v>
+      </c>
+      <c r="B48" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>000430</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="14.25">
+      <c r="A49" s="2">
+        <v>71</v>
+      </c>
+      <c r="B49" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>000071</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="14.25">
+      <c r="A50" s="2">
+        <v>216</v>
+      </c>
+      <c r="B50" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>000216</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="14.25">
+      <c r="A51" s="2">
+        <v>419</v>
+      </c>
+      <c r="B51" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>000419</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="14.25">
+      <c r="A52" s="2">
+        <v>988</v>
+      </c>
+      <c r="B52" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>000988</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="14.25">
+      <c r="A53" s="2">
+        <v>71</v>
+      </c>
+      <c r="B53" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>000071</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="14.25">
+      <c r="A54" s="2">
+        <v>71</v>
+      </c>
+      <c r="B54" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>000071</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="14.25">
+      <c r="A55" s="2">
+        <v>162</v>
+      </c>
+      <c r="B55" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>000162</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="14.25">
+      <c r="A56" s="2">
+        <v>136</v>
+      </c>
+      <c r="B56" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>000136</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="14.25">
+      <c r="A57" s="2">
+        <v>419</v>
+      </c>
+      <c r="B57" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>000419</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="14.25">
+      <c r="A58" s="29">
+        <v>418</v>
+      </c>
+      <c r="B58" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>000418</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="14.25">
+      <c r="A59" s="2">
+        <v>418</v>
+      </c>
+      <c r="B59" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>000418</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="14.25">
+      <c r="A60" s="2">
+        <v>418</v>
+      </c>
+      <c r="B60" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>000418</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="14.25">
+      <c r="A61" s="2">
+        <v>71</v>
+      </c>
+      <c r="B61" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>000071</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="14.25">
+      <c r="A62" s="2">
+        <v>418</v>
+      </c>
+      <c r="B62" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>000418</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="14.25">
+      <c r="A63" s="2">
+        <v>418</v>
+      </c>
+      <c r="B63" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>000418</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="14.25">
+      <c r="A64" s="2">
+        <v>430</v>
+      </c>
+      <c r="B64" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>000430</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="14.25">
+      <c r="A65" s="2">
+        <v>136</v>
+      </c>
+      <c r="B65" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>000136</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="14.25">
+      <c r="A66" s="2">
+        <v>136</v>
+      </c>
+      <c r="B66" s="5" t="str">
+        <f t="shared" ref="B66:B129" si="1">TEXT(A66,"000000")</f>
+        <v>000136</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="14.25">
+      <c r="A67" s="29">
+        <v>57</v>
+      </c>
+      <c r="B67" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>000057</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="14.25">
+      <c r="A68" s="2">
+        <v>425</v>
+      </c>
+      <c r="B68" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>000425</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="14.25">
+      <c r="A69" s="32">
+        <v>57</v>
+      </c>
+      <c r="B69" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>000057</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="14.25">
+      <c r="A70" s="2">
+        <v>146</v>
+      </c>
+      <c r="B70" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>000146</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="14.25">
+      <c r="A71" s="2">
+        <v>71</v>
+      </c>
+      <c r="B71" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>000071</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="14.25">
+      <c r="A72" s="2">
+        <v>57</v>
+      </c>
+      <c r="B72" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>000057</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="14.25">
+      <c r="A73" s="2">
+        <v>443</v>
+      </c>
+      <c r="B73" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>000443</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="14.25">
+      <c r="A74" s="2">
+        <v>51</v>
+      </c>
+      <c r="B74" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>000051</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="14.25">
+      <c r="A75" s="2">
+        <v>208</v>
+      </c>
+      <c r="B75" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>000208</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="14.25">
+      <c r="A76" s="2">
+        <v>234</v>
+      </c>
+      <c r="B76" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>000234</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="14.25">
+      <c r="A77" s="2">
+        <v>123</v>
+      </c>
+      <c r="B77" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>000123</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="14.25">
+      <c r="A78" s="2">
+        <v>71</v>
+      </c>
+      <c r="B78" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>000071</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="14.25">
+      <c r="A79" s="2">
+        <v>229</v>
+      </c>
+      <c r="B79" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>000229</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="14.25">
+      <c r="A80" s="2">
+        <v>42</v>
+      </c>
+      <c r="B80" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>000042</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="14.25">
+      <c r="A81" s="2">
+        <v>961</v>
+      </c>
+      <c r="B81" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>000961</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="14.25">
+      <c r="A82" s="2">
+        <v>162</v>
+      </c>
+      <c r="B82" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>000162</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="14.25">
+      <c r="A83" s="2">
+        <v>71</v>
+      </c>
+      <c r="B83" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>000071</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="14.25">
+      <c r="A84" s="2">
+        <v>419</v>
+      </c>
+      <c r="B84" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>000419</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="14.25">
+      <c r="A85" s="2">
+        <v>400</v>
+      </c>
+      <c r="B85" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>000400</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="14.25">
+      <c r="A86" s="2">
+        <v>475</v>
+      </c>
+      <c r="B86" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>000475</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="14.25">
+      <c r="A87" s="2">
+        <v>135</v>
+      </c>
+      <c r="B87" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>000135</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="14.25">
+      <c r="A88" s="2">
+        <v>277</v>
+      </c>
+      <c r="B88" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>000277</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="14.25">
+      <c r="A89" s="2">
+        <v>8</v>
+      </c>
+      <c r="B89" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>000008</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="14.25">
+      <c r="A90" s="2">
+        <v>208</v>
+      </c>
+      <c r="B90" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>000208</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="14.25">
+      <c r="A91" s="2">
+        <v>201</v>
+      </c>
+      <c r="B91" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>000201</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="14.25">
+      <c r="A92" s="2">
+        <v>419</v>
+      </c>
+      <c r="B92" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>000419</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="14.25">
+      <c r="A93" s="2">
+        <v>162</v>
+      </c>
+      <c r="B93" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>000162</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="14.25">
+      <c r="A94" s="2">
+        <v>201</v>
+      </c>
+      <c r="B94" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>000201</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="14.25">
+      <c r="A95" s="2">
+        <v>234</v>
+      </c>
+      <c r="B95" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>000234</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="14.25">
+      <c r="A96" s="2">
+        <v>418</v>
+      </c>
+      <c r="B96" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>000418</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="14.25">
+      <c r="A97" s="2">
+        <v>419</v>
+      </c>
+      <c r="B97" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>000419</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="14.25">
+      <c r="A98" s="2">
+        <v>216</v>
+      </c>
+      <c r="B98" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>000216</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="14.25">
+      <c r="A99" s="2">
+        <v>475</v>
+      </c>
+      <c r="B99" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>000475</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" ht="14.25">
+      <c r="A100" s="2">
+        <v>934</v>
+      </c>
+      <c r="B100" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>000934</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" ht="14.25">
+      <c r="A101" s="2">
+        <v>283</v>
+      </c>
+      <c r="B101" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>000283</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" ht="14.25">
+      <c r="A102" s="2">
+        <v>591</v>
+      </c>
+      <c r="B102" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>000591</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" ht="14.25">
+      <c r="A103" s="2">
+        <v>162</v>
+      </c>
+      <c r="B103" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>000162</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" ht="14.25">
+      <c r="A104" s="2">
+        <v>425</v>
+      </c>
+      <c r="B104" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>000425</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" ht="14.25">
+      <c r="A105" s="2">
+        <v>934</v>
+      </c>
+      <c r="B105" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>000934</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" ht="14.25">
+      <c r="A106" s="2">
+        <v>201</v>
+      </c>
+      <c r="B106" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>000201</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" ht="14.25">
+      <c r="A107" s="2">
+        <v>400</v>
+      </c>
+      <c r="B107" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>000400</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" ht="14.25">
+      <c r="A108" s="2">
+        <v>216</v>
+      </c>
+      <c r="B108" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>000216</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" ht="14.25">
+      <c r="A109" s="2">
+        <v>418</v>
+      </c>
+      <c r="B109" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>000418</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" ht="14.25">
+      <c r="A110" s="2">
+        <v>57</v>
+      </c>
+      <c r="B110" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>000057</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" ht="14.25">
+      <c r="A111" s="2">
+        <v>162</v>
+      </c>
+      <c r="B111" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>000162</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" ht="14.25">
+      <c r="A112" s="2">
+        <v>135</v>
+      </c>
+      <c r="B112" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>000135</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" ht="14.25">
+      <c r="A113" s="2">
+        <v>201</v>
+      </c>
+      <c r="B113" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>000201</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" ht="14.25">
+      <c r="A114" s="2">
+        <v>69</v>
+      </c>
+      <c r="B114" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>000069</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" ht="14.25">
+      <c r="A115" s="2">
+        <v>202</v>
+      </c>
+      <c r="B115" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>000202</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" ht="14.25">
+      <c r="A116" s="2">
+        <v>42</v>
+      </c>
+      <c r="B116" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>000042</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" ht="14.25">
+      <c r="A117" s="2">
+        <v>277</v>
+      </c>
+      <c r="B117" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>000277</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" ht="14.25">
+      <c r="A118" s="2">
+        <v>277</v>
+      </c>
+      <c r="B118" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>000277</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" ht="14.25">
+      <c r="A119" s="2">
+        <v>1002</v>
+      </c>
+      <c r="B119" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>001002</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" ht="14.25">
+      <c r="A120" s="2">
+        <v>287</v>
+      </c>
+      <c r="B120" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>000287</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" ht="14.25">
+      <c r="A121" s="2">
+        <v>234</v>
+      </c>
+      <c r="B121" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>000234</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" ht="14.25">
+      <c r="A122" s="2">
+        <v>208</v>
+      </c>
+      <c r="B122" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>000208</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" ht="14.25">
+      <c r="A123" s="2">
+        <v>57</v>
+      </c>
+      <c r="B123" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>000057</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" ht="14.25">
+      <c r="A124" s="2">
+        <v>443</v>
+      </c>
+      <c r="B124" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>000443</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" ht="14.25">
+      <c r="A125" s="2">
+        <v>305</v>
+      </c>
+      <c r="B125" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>000305</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" ht="14.25">
+      <c r="A126" s="2">
+        <v>400</v>
+      </c>
+      <c r="B126" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>000400</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" ht="14.25">
+      <c r="A127" s="2">
+        <v>425</v>
+      </c>
+      <c r="B127" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>000425</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" ht="14.25">
+      <c r="A128" s="2">
+        <v>1181</v>
+      </c>
+      <c r="B128" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>001181</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" ht="14.25">
+      <c r="A129" s="2">
+        <v>57</v>
+      </c>
+      <c r="B129" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>000057</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" ht="14.25">
+      <c r="A130" s="2">
+        <v>283</v>
+      </c>
+      <c r="B130" s="5" t="str">
+        <f t="shared" ref="B130:B193" si="2">TEXT(A130,"000000")</f>
+        <v>000283</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" ht="14.25">
+      <c r="A131" s="32">
+        <v>443</v>
+      </c>
+      <c r="B131" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>000443</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" ht="14.25">
+      <c r="A132" s="2">
+        <v>591</v>
+      </c>
+      <c r="B132" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>000591</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" ht="14.25">
+      <c r="A133" s="2">
+        <v>1038</v>
+      </c>
+      <c r="B133" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>001038</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" ht="14.25">
+      <c r="A134" s="2">
+        <v>934</v>
+      </c>
+      <c r="B134" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>000934</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" ht="14.25">
+      <c r="A135" s="2">
+        <v>209</v>
+      </c>
+      <c r="B135" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>000209</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" ht="14.25">
+      <c r="A136" s="2">
+        <v>136</v>
+      </c>
+      <c r="B136" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>000136</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" ht="14.25">
+      <c r="A137" s="2">
+        <v>305</v>
+      </c>
+      <c r="B137" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>000305</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" ht="14.25">
+      <c r="A138" s="2">
+        <v>961</v>
+      </c>
+      <c r="B138" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>000961</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" ht="14.25">
+      <c r="A139" s="2">
+        <v>42</v>
+      </c>
+      <c r="B139" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>000042</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" ht="14.25">
+      <c r="A140" s="2">
+        <v>162</v>
+      </c>
+      <c r="B140" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>000162</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" ht="14.25">
+      <c r="A141" s="2">
+        <v>287</v>
+      </c>
+      <c r="B141" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>000287</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" ht="14.25">
+      <c r="A142" s="2">
+        <v>934</v>
+      </c>
+      <c r="B142" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>000934</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" ht="14.25">
+      <c r="A143" s="2">
+        <v>961</v>
+      </c>
+      <c r="B143" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>000961</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" ht="14.25">
+      <c r="A144" s="2">
+        <v>988</v>
+      </c>
+      <c r="B144" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>000988</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" ht="14.25">
+      <c r="A145" s="2">
+        <v>136</v>
+      </c>
+      <c r="B145" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>000136</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" ht="14.25">
+      <c r="A146" s="2">
+        <v>218</v>
+      </c>
+      <c r="B146" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>000218</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" ht="14.25">
+      <c r="A147" s="2">
+        <v>1181</v>
+      </c>
+      <c r="B147" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>001181</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" ht="14.25">
+      <c r="A148" s="2">
+        <v>961</v>
+      </c>
+      <c r="B148" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>000961</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" ht="14.25">
+      <c r="A149" s="2">
+        <v>961</v>
+      </c>
+      <c r="B149" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>000961</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" ht="14.25">
+      <c r="A150" s="2">
+        <v>1181</v>
+      </c>
+      <c r="B150" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>001181</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" ht="14.25">
+      <c r="A151" s="2">
+        <v>1181</v>
+      </c>
+      <c r="B151" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>001181</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" ht="14.25">
+      <c r="A152" s="2">
+        <v>162</v>
+      </c>
+      <c r="B152" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>000162</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" ht="14.25">
+      <c r="A153" s="2">
+        <v>400</v>
+      </c>
+      <c r="B153" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>000400</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" ht="14.25">
+      <c r="A154" s="2">
+        <v>475</v>
+      </c>
+      <c r="B154" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>000475</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" ht="14.25">
+      <c r="A155" s="2">
+        <v>380</v>
+      </c>
+      <c r="B155" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>000380</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" ht="14.25">
+      <c r="A156" s="2">
+        <v>400</v>
+      </c>
+      <c r="B156" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>000400</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" ht="14.25">
+      <c r="A157" s="2">
+        <v>209</v>
+      </c>
+      <c r="B157" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>000209</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" ht="14.25">
+      <c r="A158" s="2">
+        <v>63</v>
+      </c>
+      <c r="B158" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>000063</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" ht="14.25">
+      <c r="A159" s="2">
+        <v>229</v>
+      </c>
+      <c r="B159" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>000229</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" ht="14.25">
+      <c r="A160" s="2">
+        <v>475</v>
+      </c>
+      <c r="B160" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>000475</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" ht="14.25">
+      <c r="A161" s="2">
+        <v>961</v>
+      </c>
+      <c r="B161" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>000961</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" ht="14.25">
+      <c r="A162" s="2">
+        <v>380</v>
+      </c>
+      <c r="B162" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>000380</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" ht="14.25">
+      <c r="A163" s="2">
+        <v>234</v>
+      </c>
+      <c r="B163" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>000234</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" ht="14.25">
+      <c r="A164" s="2">
+        <v>934</v>
+      </c>
+      <c r="B164" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>000934</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" ht="14.25">
+      <c r="A165" s="2">
+        <v>294</v>
+      </c>
+      <c r="B165" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>000294</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" ht="14.25">
+      <c r="A166" s="2">
+        <v>961</v>
+      </c>
+      <c r="B166" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>000961</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" ht="14.25">
+      <c r="A167" s="2">
+        <v>475</v>
+      </c>
+      <c r="B167" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>000475</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" ht="14.25">
+      <c r="A168" s="2">
+        <v>934</v>
+      </c>
+      <c r="B168" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>000934</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" ht="14.25">
+      <c r="A169" s="2">
+        <v>988</v>
+      </c>
+      <c r="B169" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>000988</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" ht="14.25">
+      <c r="A170" s="2">
+        <v>1038</v>
+      </c>
+      <c r="B170" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>001038</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" ht="14.25">
+      <c r="A171" s="2">
+        <v>57</v>
+      </c>
+      <c r="B171" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>000057</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" ht="14.25">
+      <c r="A172" s="2">
+        <v>135</v>
+      </c>
+      <c r="B172" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>000135</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" ht="14.25">
+      <c r="A173" s="2">
+        <v>1181</v>
+      </c>
+      <c r="B173" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>001181</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" ht="14.25">
+      <c r="A174" s="2">
+        <v>815</v>
+      </c>
+      <c r="B174" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>000815</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" ht="14.25">
+      <c r="A175" s="2">
+        <v>961</v>
+      </c>
+      <c r="B175" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>000961</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" ht="14.25">
+      <c r="A176" s="2">
+        <v>208</v>
+      </c>
+      <c r="B176" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>000208</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" ht="14.25">
+      <c r="A177" s="2">
+        <v>305</v>
+      </c>
+      <c r="B177" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>000305</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" ht="14.25">
+      <c r="A178" s="2">
+        <v>63</v>
+      </c>
+      <c r="B178" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>000063</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" ht="14.25">
+      <c r="A179" s="2">
+        <v>294</v>
+      </c>
+      <c r="B179" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>000294</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" ht="14.25">
+      <c r="A180" s="2">
+        <v>815</v>
+      </c>
+      <c r="B180" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>000815</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" ht="14.25">
+      <c r="A181" s="2">
+        <v>400</v>
+      </c>
+      <c r="B181" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>000400</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" ht="14.25">
+      <c r="A182" s="2">
+        <v>475</v>
+      </c>
+      <c r="B182" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>000475</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" ht="14.25">
+      <c r="A183" s="2">
+        <v>591</v>
+      </c>
+      <c r="B183" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>000591</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" ht="14.25">
+      <c r="A184" s="2">
+        <v>681</v>
+      </c>
+      <c r="B184" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>000681</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" ht="14.25">
+      <c r="A185" s="2">
+        <v>162</v>
+      </c>
+      <c r="B185" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>000162</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" ht="14.25">
+      <c r="A186" s="2">
+        <v>380</v>
+      </c>
+      <c r="B186" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>000380</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" ht="14.25">
+      <c r="A187" s="2">
+        <v>988</v>
+      </c>
+      <c r="B187" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>000988</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" ht="14.25">
+      <c r="A188" s="2">
+        <v>234</v>
+      </c>
+      <c r="B188" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>000234</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" ht="14.25">
+      <c r="A189" s="2">
+        <v>305</v>
+      </c>
+      <c r="B189" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>000305</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" ht="14.25">
+      <c r="A190" s="2">
+        <v>305</v>
+      </c>
+      <c r="B190" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>000305</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" ht="14.25">
+      <c r="A191" s="2">
+        <v>202</v>
+      </c>
+      <c r="B191" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>000202</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" ht="14.25">
+      <c r="A192" s="2">
+        <v>815</v>
+      </c>
+      <c r="B192" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>000815</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" ht="14.25">
+      <c r="A193" s="2">
+        <v>591</v>
+      </c>
+      <c r="B193" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>000591</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" ht="14.25">
+      <c r="A194" s="2">
+        <v>305</v>
+      </c>
+      <c r="B194" s="5" t="str">
+        <f t="shared" ref="B194:B257" si="3">TEXT(A194,"000000")</f>
+        <v>000305</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" ht="14.25">
+      <c r="A195" s="2">
+        <v>234</v>
+      </c>
+      <c r="B195" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>000234</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" ht="14.25">
+      <c r="A196" s="2">
+        <v>1181</v>
+      </c>
+      <c r="B196" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>001181</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" ht="14.25">
+      <c r="A197" s="2">
+        <v>934</v>
+      </c>
+      <c r="B197" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>000934</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" ht="14.25">
+      <c r="A198" s="2">
+        <v>294</v>
+      </c>
+      <c r="B198" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>000294</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" ht="14.25">
+      <c r="A199" s="2">
+        <v>135</v>
+      </c>
+      <c r="B199" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>000135</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" ht="14.25">
+      <c r="A200" s="2">
+        <v>135</v>
+      </c>
+      <c r="B200" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>000135</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" ht="14.25">
+      <c r="A201" s="2">
+        <v>1119</v>
+      </c>
+      <c r="B201" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>001119</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" ht="14.25">
+      <c r="A202" s="2">
+        <v>591</v>
+      </c>
+      <c r="B202" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>000591</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" ht="14.25">
+      <c r="A203" s="2">
+        <v>934</v>
+      </c>
+      <c r="B203" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>000934</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" ht="14.25">
+      <c r="A204" s="2">
+        <v>234</v>
+      </c>
+      <c r="B204" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>000234</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" ht="14.25">
+      <c r="A205" s="2">
+        <v>418</v>
+      </c>
+      <c r="B205" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>000418</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" ht="14.25">
+      <c r="A206" s="2">
+        <v>277</v>
+      </c>
+      <c r="B206" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>000277</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" ht="14.25">
+      <c r="A207" s="2">
+        <v>287</v>
+      </c>
+      <c r="B207" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>000287</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" ht="14.25">
+      <c r="A208" s="2">
+        <v>815</v>
+      </c>
+      <c r="B208" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>000815</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" ht="14.25">
+      <c r="A209" s="2">
+        <v>934</v>
+      </c>
+      <c r="B209" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>000934</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" ht="14.25">
+      <c r="A210" s="2">
+        <v>591</v>
+      </c>
+      <c r="B210" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>000591</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" ht="14.25">
+      <c r="A211" s="2">
+        <v>425</v>
+      </c>
+      <c r="B211" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>000425</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" ht="14.25">
+      <c r="A212" s="2">
+        <v>162</v>
+      </c>
+      <c r="B212" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>000162</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" ht="14.25">
+      <c r="A213" s="2">
+        <v>988</v>
+      </c>
+      <c r="B213" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>000988</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" ht="14.25">
+      <c r="A214" s="2">
+        <v>234</v>
+      </c>
+      <c r="B214" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>000234</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" ht="14.25">
+      <c r="A215" s="2">
+        <v>1002</v>
+      </c>
+      <c r="B215" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>001002</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" ht="14.25">
+      <c r="A216" s="2">
+        <v>57</v>
+      </c>
+      <c r="B216" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>000057</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" ht="14.25">
+      <c r="A217" s="2">
+        <v>305</v>
+      </c>
+      <c r="B217" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>000305</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" ht="14.25">
+      <c r="A218" s="2">
+        <v>305</v>
+      </c>
+      <c r="B218" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>000305</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" ht="14.25">
+      <c r="A219" s="2">
+        <v>71</v>
+      </c>
+      <c r="B219" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>000071</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" ht="14.25">
+      <c r="A220" s="2">
+        <v>591</v>
+      </c>
+      <c r="B220" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>000591</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" ht="14.25">
+      <c r="A221" s="2">
+        <v>208</v>
+      </c>
+      <c r="B221" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>000208</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" ht="14.25">
+      <c r="A222" s="2">
+        <v>961</v>
+      </c>
+      <c r="B222" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>000961</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" ht="14.25">
+      <c r="A223" s="2">
+        <v>1181</v>
+      </c>
+      <c r="B223" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>001181</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" ht="14.25">
+      <c r="A224" s="2">
+        <v>443</v>
+      </c>
+      <c r="B224" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>000443</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" ht="14.25">
+      <c r="A225" s="2">
+        <v>934</v>
+      </c>
+      <c r="B225" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>000934</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" ht="14.25">
+      <c r="A226" s="2">
+        <v>305</v>
+      </c>
+      <c r="B226" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>000305</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" ht="14.25">
+      <c r="A227" s="2">
+        <v>208</v>
+      </c>
+      <c r="B227" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>000208</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" ht="14.25">
+      <c r="A228" s="2">
+        <v>305</v>
+      </c>
+      <c r="B228" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>000305</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" ht="14.25">
+      <c r="A229" s="2">
+        <v>1181</v>
+      </c>
+      <c r="B229" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>001181</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" ht="14.25">
+      <c r="A230" s="2">
+        <v>277</v>
+      </c>
+      <c r="B230" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>000277</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" ht="14.25">
+      <c r="A231" s="2">
+        <v>294</v>
+      </c>
+      <c r="B231" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>000294</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" ht="14.25">
+      <c r="A232" s="2">
+        <v>135</v>
+      </c>
+      <c r="B232" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>000135</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" ht="14.25">
+      <c r="A233" s="2">
+        <v>305</v>
+      </c>
+      <c r="B233" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>000305</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" ht="14.25">
+      <c r="A234" s="2">
+        <v>277</v>
+      </c>
+      <c r="B234" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>000277</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" ht="14.25">
+      <c r="A235" s="2">
+        <v>430</v>
+      </c>
+      <c r="B235" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>000430</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" ht="14.25">
+      <c r="A236" s="2">
+        <v>815</v>
+      </c>
+      <c r="B236" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>000815</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" ht="14.25">
+      <c r="A237" s="2">
+        <v>135</v>
+      </c>
+      <c r="B237" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>000135</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" ht="14.25">
+      <c r="A238" s="2">
+        <v>815</v>
+      </c>
+      <c r="B238" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>000815</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" ht="14.25">
+      <c r="A239" s="2">
+        <v>988</v>
+      </c>
+      <c r="B239" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>000988</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" ht="14.25">
+      <c r="A240" s="34">
+        <v>218</v>
+      </c>
+      <c r="B240" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>000218</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" ht="14.25">
+      <c r="A241" s="2">
+        <v>305</v>
+      </c>
+      <c r="B241" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>000305</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" ht="14.25">
+      <c r="A242" s="2">
+        <v>591</v>
+      </c>
+      <c r="B242" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>000591</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" ht="14.25">
+      <c r="A243" s="2">
+        <v>277</v>
+      </c>
+      <c r="B243" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>000277</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" ht="14.25">
+      <c r="A244" s="2">
+        <v>681</v>
+      </c>
+      <c r="B244" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>000681</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" ht="14.25">
+      <c r="A245" s="2">
+        <v>475</v>
+      </c>
+      <c r="B245" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>000475</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" ht="14.25">
+      <c r="A246" s="2">
+        <v>69</v>
+      </c>
+      <c r="B246" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>000069</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" ht="14.25">
+      <c r="A247" s="2">
+        <v>961</v>
+      </c>
+      <c r="B247" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>000961</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" ht="14.25">
+      <c r="A248" s="2">
+        <v>1386</v>
+      </c>
+      <c r="B248" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>001386</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" ht="14.25">
+      <c r="A249" s="2">
+        <v>1386</v>
+      </c>
+      <c r="B249" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>001386</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" ht="14.25">
+      <c r="A250" s="2">
+        <v>591</v>
+      </c>
+      <c r="B250" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>000591</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" ht="14.25">
+      <c r="A251" s="2">
+        <v>591</v>
+      </c>
+      <c r="B251" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>000591</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" ht="14.25">
+      <c r="A252" s="2">
+        <v>815</v>
+      </c>
+      <c r="B252" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>000815</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" ht="14.25">
+      <c r="A253" s="32">
+        <v>1002</v>
+      </c>
+      <c r="B253" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>001002</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" ht="14.25">
+      <c r="A254" s="2">
+        <v>475</v>
+      </c>
+      <c r="B254" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>000475</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" ht="14.25">
+      <c r="A255" s="2">
+        <v>934</v>
+      </c>
+      <c r="B255" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>000934</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" ht="14.25">
+      <c r="A256" s="2">
+        <v>961</v>
+      </c>
+      <c r="B256" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>000961</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" ht="14.25">
+      <c r="A257" s="2">
+        <v>1406</v>
+      </c>
+      <c r="B257" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>001406</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" ht="14.25">
+      <c r="A258" s="2">
+        <v>1406</v>
+      </c>
+      <c r="B258" s="5" t="str">
+        <f t="shared" ref="B258:B321" si="4">TEXT(A258,"000000")</f>
+        <v>001406</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" ht="14.25">
+      <c r="A259" s="2">
+        <v>475</v>
+      </c>
+      <c r="B259" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>000475</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" ht="14.25">
+      <c r="A260" s="2">
+        <v>1406</v>
+      </c>
+      <c r="B260" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>001406</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" ht="14.25">
+      <c r="A261" s="2">
+        <v>430</v>
+      </c>
+      <c r="B261" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>000430</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" ht="14.25">
+      <c r="A262" s="2">
+        <v>277</v>
+      </c>
+      <c r="B262" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>000277</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" ht="14.25">
+      <c r="A263" s="2">
+        <v>1404</v>
+      </c>
+      <c r="B263" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>001404</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" ht="14.25">
+      <c r="A264" s="2">
+        <v>1404</v>
+      </c>
+      <c r="B264" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>001404</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" ht="14.25">
+      <c r="A265" s="2">
+        <v>1404</v>
+      </c>
+      <c r="B265" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>001404</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" ht="14.25">
+      <c r="A266" s="2">
+        <v>1002</v>
+      </c>
+      <c r="B266" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>001002</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" ht="14.25">
+      <c r="A267" s="32">
+        <v>201</v>
+      </c>
+      <c r="B267" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>000201</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" ht="14.25">
+      <c r="A268" s="2">
+        <v>1404</v>
+      </c>
+      <c r="B268" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>001404</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" ht="14.25">
+      <c r="A269" s="2">
+        <v>229</v>
+      </c>
+      <c r="B269" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>000229</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" ht="14.25">
+      <c r="A270" s="2">
+        <v>591</v>
+      </c>
+      <c r="B270" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>000591</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" ht="14.25">
+      <c r="A271" s="2">
+        <v>1404</v>
+      </c>
+      <c r="B271" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>001404</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" ht="14.25">
+      <c r="A272" s="2">
+        <v>681</v>
+      </c>
+      <c r="B272" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>000681</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" ht="14.25">
+      <c r="A273" s="32">
+        <v>1404</v>
+      </c>
+      <c r="B273" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>001404</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" ht="14.25">
+      <c r="A274" s="2">
+        <v>961</v>
+      </c>
+      <c r="B274" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>000961</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" ht="14.25">
+      <c r="A275" s="2">
+        <v>934</v>
+      </c>
+      <c r="B275" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>000934</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" ht="14.25">
+      <c r="A276" s="2">
+        <v>57</v>
+      </c>
+      <c r="B276" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>000057</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" ht="14.25">
+      <c r="A277" s="2">
+        <v>380</v>
+      </c>
+      <c r="B277" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>000380</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" ht="14.25">
+      <c r="A278" s="2">
+        <v>162</v>
+      </c>
+      <c r="B278" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>000162</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" ht="14.25">
+      <c r="A279" s="2">
+        <v>277</v>
+      </c>
+      <c r="B279" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>000277</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" ht="14.25">
+      <c r="A280" s="2">
+        <v>1406</v>
+      </c>
+      <c r="B280" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>001406</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" ht="14.25">
+      <c r="A281" s="2">
+        <v>591</v>
+      </c>
+      <c r="B281" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>000591</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" ht="14.25">
+      <c r="A282" s="2">
+        <v>208</v>
+      </c>
+      <c r="B282" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>000208</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" ht="14.25">
+      <c r="A283" s="2">
+        <v>681</v>
+      </c>
+      <c r="B283" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>000681</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" ht="14.25">
+      <c r="A284" s="2">
+        <v>475</v>
+      </c>
+      <c r="B284" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>000475</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" ht="14.25">
+      <c r="A285" s="2">
+        <v>400</v>
+      </c>
+      <c r="B285" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>000400</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" ht="14.25">
+      <c r="A286" s="2">
+        <v>934</v>
+      </c>
+      <c r="B286" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>000934</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" ht="14.25">
+      <c r="A287" s="2">
+        <v>1406</v>
+      </c>
+      <c r="B287" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>001406</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" ht="14.25">
+      <c r="A288" s="2">
+        <v>1404</v>
+      </c>
+      <c r="B288" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>001404</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" ht="14.25">
+      <c r="A289" s="2">
+        <v>430</v>
+      </c>
+      <c r="B289" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>000430</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" ht="14.25">
+      <c r="A290" s="2">
+        <v>591</v>
+      </c>
+      <c r="B290" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>000591</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" ht="14.25">
+      <c r="A291" s="2">
+        <v>69</v>
+      </c>
+      <c r="B291" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>000069</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" ht="14.25">
+      <c r="A292" s="34">
+        <v>1203</v>
+      </c>
+      <c r="B292" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>001203</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" ht="14.25">
+      <c r="A293" s="2">
+        <v>209</v>
+      </c>
+      <c r="B293" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>000209</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" ht="14.25">
+      <c r="A294" s="2">
+        <v>234</v>
+      </c>
+      <c r="B294" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>000234</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" ht="14.25">
+      <c r="A295" s="2">
+        <v>1181</v>
+      </c>
+      <c r="B295" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>001181</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" ht="14.25">
+      <c r="A296" s="2">
+        <v>1406</v>
+      </c>
+      <c r="B296" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>001406</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" ht="14.25">
+      <c r="A297" s="2">
+        <v>443</v>
+      </c>
+      <c r="B297" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>000443</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" ht="14.25">
+      <c r="A298" s="2">
+        <v>179</v>
+      </c>
+      <c r="B298" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>000179</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" ht="14.25">
+      <c r="A299" s="2">
+        <v>216</v>
+      </c>
+      <c r="B299" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>000216</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" ht="14.25">
+      <c r="A300" s="2">
+        <v>418</v>
+      </c>
+      <c r="B300" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>000418</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" ht="14.25">
+      <c r="A301" s="2">
+        <v>277</v>
+      </c>
+      <c r="B301" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>000277</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" ht="14.25">
+      <c r="A302" s="2">
+        <v>1404</v>
+      </c>
+      <c r="B302" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>001404</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" ht="14.25">
+      <c r="A303" s="2">
+        <v>216</v>
+      </c>
+      <c r="B303" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>000216</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" ht="14.25">
+      <c r="A304" s="2">
+        <v>277</v>
+      </c>
+      <c r="B304" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>000277</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" ht="14.25">
+      <c r="A305" s="2">
+        <v>961</v>
+      </c>
+      <c r="B305" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>000961</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" ht="14.25">
+      <c r="A306" s="2">
+        <v>961</v>
+      </c>
+      <c r="B306" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>000961</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" ht="14.25">
+      <c r="A307" s="2">
+        <v>1406</v>
+      </c>
+      <c r="B307" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>001406</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" ht="14.25">
+      <c r="A308" s="2">
+        <v>1119</v>
+      </c>
+      <c r="B308" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>001119</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" ht="14.25">
+      <c r="A309" s="2">
+        <v>1181</v>
+      </c>
+      <c r="B309" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>001181</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" ht="14.25">
+      <c r="A310" s="2">
+        <v>123</v>
+      </c>
+      <c r="B310" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>000123</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" ht="14.25">
+      <c r="A311" s="2">
+        <v>815</v>
+      </c>
+      <c r="B311" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>000815</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" ht="14.25">
+      <c r="A312" s="2">
+        <v>201</v>
+      </c>
+      <c r="B312" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>000201</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" ht="14.25">
+      <c r="A313" s="2">
+        <v>961</v>
+      </c>
+      <c r="B313" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>000961</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" ht="14.25">
+      <c r="A314" s="2">
+        <v>1119</v>
+      </c>
+      <c r="B314" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>001119</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" ht="14.25">
+      <c r="A315" s="2">
+        <v>418</v>
+      </c>
+      <c r="B315" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>000418</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" ht="14.25">
+      <c r="A316" s="2">
+        <v>1181</v>
+      </c>
+      <c r="B316" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>001181</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" ht="14.25">
+      <c r="A317" s="2">
+        <v>1181</v>
+      </c>
+      <c r="B317" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>001181</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" ht="14.25">
+      <c r="A318" s="2">
+        <v>69</v>
+      </c>
+      <c r="B318" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>000069</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" ht="14.25">
+      <c r="A319" s="29">
+        <v>1038</v>
+      </c>
+      <c r="B319" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>001038</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" ht="14.25">
+      <c r="A320" s="2">
+        <v>418</v>
+      </c>
+      <c r="B320" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>000418</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" ht="14.25">
+      <c r="A321" s="2">
+        <v>1404</v>
+      </c>
+      <c r="B321" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>001404</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" ht="14.25">
+      <c r="A322" s="2">
+        <v>681</v>
+      </c>
+      <c r="B322" s="5" t="str">
+        <f t="shared" ref="B322:B385" si="5">TEXT(A322,"000000")</f>
+        <v>000681</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" ht="14.25">
+      <c r="A323" s="2">
+        <v>1406</v>
+      </c>
+      <c r="B323" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>001406</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" ht="14.25">
+      <c r="A324" s="34">
+        <v>218</v>
+      </c>
+      <c r="B324" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>000218</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" ht="14.25">
+      <c r="A325" s="2">
+        <v>1002</v>
+      </c>
+      <c r="B325" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>001002</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" ht="14.25">
+      <c r="A326" s="2">
+        <v>1002</v>
+      </c>
+      <c r="B326" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>001002</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" ht="14.25">
+      <c r="A327" s="2">
+        <v>1610</v>
+      </c>
+      <c r="B327" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>001610</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" ht="14.25">
+      <c r="A328" s="2">
+        <v>1610</v>
+      </c>
+      <c r="B328" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>001610</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" ht="14.25">
+      <c r="A329" s="2">
+        <v>1406</v>
+      </c>
+      <c r="B329" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>001406</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" ht="14.25">
+      <c r="A330" s="2">
+        <v>815</v>
+      </c>
+      <c r="B330" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>000815</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" ht="14.25">
+      <c r="A331" s="2">
+        <v>815</v>
+      </c>
+      <c r="B331" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>000815</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" ht="14.25">
+      <c r="A332" s="34">
+        <v>1610</v>
+      </c>
+      <c r="B332" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>001610</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" ht="14.25">
+      <c r="A333" s="2">
+        <v>216</v>
+      </c>
+      <c r="B333" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>000216</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" ht="14.25">
+      <c r="A334" s="2">
+        <v>57</v>
+      </c>
+      <c r="B334" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>000057</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" ht="14.25">
+      <c r="A335" s="2">
+        <v>71</v>
+      </c>
+      <c r="B335" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>000071</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" ht="14.25">
+      <c r="A336" s="34">
+        <v>1610</v>
+      </c>
+      <c r="B336" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>001610</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" ht="14.25">
+      <c r="A337" s="2">
+        <v>815</v>
+      </c>
+      <c r="B337" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>000815</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" ht="14.25">
+      <c r="A338" s="2">
+        <v>815</v>
+      </c>
+      <c r="B338" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>000815</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" ht="14.25">
+      <c r="A339" s="2">
+        <v>815</v>
+      </c>
+      <c r="B339" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>000815</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" ht="14.25">
+      <c r="A340" s="2">
+        <v>1406</v>
+      </c>
+      <c r="B340" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>001406</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" ht="14.25">
+      <c r="A341" s="34">
+        <v>1583</v>
+      </c>
+      <c r="B341" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>001583</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" ht="14.25">
+      <c r="A342" s="2">
+        <v>8</v>
+      </c>
+      <c r="B342" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>000008</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" ht="14.25">
+      <c r="A343" s="2">
+        <v>1119</v>
+      </c>
+      <c r="B343" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>001119</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" ht="14.25">
+      <c r="A344" s="2">
+        <v>1181</v>
+      </c>
+      <c r="B344" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>001181</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" ht="14.25">
+      <c r="A345" s="2">
+        <v>1181</v>
+      </c>
+      <c r="B345" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>001181</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" ht="14.25">
+      <c r="A346" s="2">
+        <v>1406</v>
+      </c>
+      <c r="B346" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>001406</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" ht="14.25">
+      <c r="A347" s="2">
+        <v>961</v>
+      </c>
+      <c r="B347" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>000961</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" ht="14.25">
+      <c r="A348" s="2">
+        <v>1406</v>
+      </c>
+      <c r="B348" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>001406</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" ht="14.25">
+      <c r="A349" s="2">
+        <v>1002</v>
+      </c>
+      <c r="B349" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>001002</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" ht="14.25">
+      <c r="A350" s="2">
+        <v>1406</v>
+      </c>
+      <c r="B350" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>001406</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" ht="14.25">
+      <c r="A351" s="34">
+        <v>1404</v>
+      </c>
+      <c r="B351" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>001404</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" ht="14.25">
+      <c r="A352" s="2">
+        <v>961</v>
+      </c>
+      <c r="B352" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>000961</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" ht="14.25">
+      <c r="A353" s="2">
+        <v>1181</v>
+      </c>
+      <c r="B353" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>001181</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" ht="14.25">
+      <c r="A354" s="2">
+        <v>1002</v>
+      </c>
+      <c r="B354" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>001002</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" ht="14.25">
+      <c r="A355" s="2">
+        <v>475</v>
+      </c>
+      <c r="B355" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>000475</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" ht="14.25">
+      <c r="A356" s="2">
+        <v>475</v>
+      </c>
+      <c r="B356" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>000475</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" ht="14.25">
+      <c r="A357" s="2">
+        <v>475</v>
+      </c>
+      <c r="B357" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>000475</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" ht="14.25">
+      <c r="A358" s="2">
+        <v>591</v>
+      </c>
+      <c r="B358" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>000591</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" ht="14.25">
+      <c r="A359" s="2">
+        <v>1181</v>
+      </c>
+      <c r="B359" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>001181</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" ht="14.25">
+      <c r="A360" s="34">
+        <v>1583</v>
+      </c>
+      <c r="B360" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>001583</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" ht="14.25">
+      <c r="A361" s="2">
+        <v>1002</v>
+      </c>
+      <c r="B361" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>001002</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" ht="14.25">
+      <c r="A362" s="2">
+        <v>1406</v>
+      </c>
+      <c r="B362" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>001406</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" ht="14.25">
+      <c r="A363" s="32">
+        <v>1181</v>
+      </c>
+      <c r="B363" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>001181</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" ht="14.25">
+      <c r="A364" s="2">
+        <v>1181</v>
+      </c>
+      <c r="B364" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>001181</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" ht="14.25">
+      <c r="A365" s="34">
+        <v>1634</v>
+      </c>
+      <c r="B365" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>001634</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" ht="14.25">
+      <c r="A366" s="2">
+        <v>1406</v>
+      </c>
+      <c r="B366" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>001406</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" ht="14.25">
+      <c r="A367" s="2">
+        <v>1610</v>
+      </c>
+      <c r="B367" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>001610</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" ht="14.25">
+      <c r="A368" s="2">
+        <v>1634</v>
+      </c>
+      <c r="B368" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>001634</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" ht="14.25">
+      <c r="A369" s="2">
+        <v>681</v>
+      </c>
+      <c r="B369" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>000681</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" ht="14.25">
+      <c r="A370" s="2">
+        <v>229</v>
+      </c>
+      <c r="B370" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>000229</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" ht="14.25">
+      <c r="A371" s="2">
+        <v>1611</v>
+      </c>
+      <c r="B371" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>001611</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" ht="14.25">
+      <c r="A372" s="2">
+        <v>1634</v>
+      </c>
+      <c r="B372" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>001634</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" ht="14.25">
+      <c r="A373" s="2">
+        <v>1610</v>
+      </c>
+      <c r="B373" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>001610</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" ht="14.25">
+      <c r="A374" s="2">
+        <v>815</v>
+      </c>
+      <c r="B374" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>000815</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" ht="14.25">
+      <c r="A375" s="2">
+        <v>1181</v>
+      </c>
+      <c r="B375" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>001181</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" ht="14.25">
+      <c r="A376" s="2">
+        <v>201</v>
+      </c>
+      <c r="B376" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>000201</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" ht="14.25">
+      <c r="A377" s="2">
+        <v>1634</v>
+      </c>
+      <c r="B377" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>001634</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" ht="14.25">
+      <c r="A378" s="2">
+        <v>135</v>
+      </c>
+      <c r="B378" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>000135</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" ht="14.25">
+      <c r="A379" s="2">
+        <v>1002</v>
+      </c>
+      <c r="B379" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>001002</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" ht="14.25">
+      <c r="A380" s="2">
+        <v>934</v>
+      </c>
+      <c r="B380" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>000934</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" ht="14.25">
+      <c r="A381" s="2">
+        <v>1610</v>
+      </c>
+      <c r="B381" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>001610</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" ht="14.25">
+      <c r="A382" s="2">
+        <v>418</v>
+      </c>
+      <c r="B382" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>000418</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" ht="14.25">
+      <c r="A383" s="2">
+        <v>591</v>
+      </c>
+      <c r="B383" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>000591</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" ht="14.25">
+      <c r="A384" s="2">
+        <v>201</v>
+      </c>
+      <c r="B384" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>000201</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" ht="14.25">
+      <c r="A385" s="2">
+        <v>201</v>
+      </c>
+      <c r="B385" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>000201</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" ht="14.25">
+      <c r="A386" s="2">
+        <v>1181</v>
+      </c>
+      <c r="B386" s="5" t="str">
+        <f t="shared" ref="B386:B449" si="6">TEXT(A386,"000000")</f>
+        <v>001181</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" ht="14.25">
+      <c r="A387" s="2">
+        <v>1203</v>
+      </c>
+      <c r="B387" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>001203</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" ht="14.25">
+      <c r="A388" s="2">
+        <v>934</v>
+      </c>
+      <c r="B388" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>000934</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" ht="14.25">
+      <c r="A389" s="2">
+        <v>1203</v>
+      </c>
+      <c r="B389" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>001203</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" ht="14.25">
+      <c r="A390" s="29">
+        <v>44</v>
+      </c>
+      <c r="B390" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>000044</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" ht="14.25">
+      <c r="A391" s="2">
+        <v>1181</v>
+      </c>
+      <c r="B391" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>001181</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" ht="14.25">
+      <c r="A392" s="2">
+        <v>123</v>
+      </c>
+      <c r="B392" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>000123</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" ht="14.25">
+      <c r="A393" s="2">
+        <v>1181</v>
+      </c>
+      <c r="B393" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>001181</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" ht="14.25">
+      <c r="A394" s="2">
+        <v>961</v>
+      </c>
+      <c r="B394" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>000961</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" ht="14.25">
+      <c r="A395" s="2">
+        <v>1119</v>
+      </c>
+      <c r="B395" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>001119</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" ht="14.25">
+      <c r="A396" s="2">
+        <v>1611</v>
+      </c>
+      <c r="B396" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>001611</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" ht="14.25">
+      <c r="A397" s="2">
+        <v>475</v>
+      </c>
+      <c r="B397" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>000475</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" ht="14.25">
+      <c r="A398" s="2">
+        <v>1119</v>
+      </c>
+      <c r="B398" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>001119</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" ht="14.25">
+      <c r="A399" s="2">
+        <v>591</v>
+      </c>
+      <c r="B399" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>000591</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" ht="14.25">
+      <c r="A400" s="2">
+        <v>475</v>
+      </c>
+      <c r="B400" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>000475</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" ht="14.25">
+      <c r="A401" s="2">
+        <v>1181</v>
+      </c>
+      <c r="B401" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>001181</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" ht="14.25">
+      <c r="A402" s="2">
+        <v>216</v>
+      </c>
+      <c r="B402" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>000216</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" ht="14.25">
+      <c r="A403" s="2">
+        <v>418</v>
+      </c>
+      <c r="B403" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>000418</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" ht="14.25">
+      <c r="A404" s="2">
+        <v>1181</v>
+      </c>
+      <c r="B404" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>001181</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" ht="14.25">
+      <c r="A405" s="2">
+        <v>934</v>
+      </c>
+      <c r="B405" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>000934</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" ht="14.25">
+      <c r="A406" s="2">
+        <v>934</v>
+      </c>
+      <c r="B406" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>000934</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" ht="14.25">
+      <c r="A407" s="2">
+        <v>961</v>
+      </c>
+      <c r="B407" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>000961</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" ht="14.25">
+      <c r="A408" s="2">
+        <v>1406</v>
+      </c>
+      <c r="B408" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>001406</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" ht="14.25">
+      <c r="A409" s="2">
+        <v>1181</v>
+      </c>
+      <c r="B409" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>001181</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" ht="14.25">
+      <c r="A410" s="2">
+        <v>418</v>
+      </c>
+      <c r="B410" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>000418</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" ht="14.25">
+      <c r="A411" s="2">
+        <v>209</v>
+      </c>
+      <c r="B411" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>000209</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" ht="14.25">
+      <c r="A412" s="2">
+        <v>1002</v>
+      </c>
+      <c r="B412" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>001002</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" ht="14.25">
+      <c r="A413" s="2">
+        <v>135</v>
+      </c>
+      <c r="B413" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>000135</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" ht="14.25">
+      <c r="A414" s="34">
+        <v>1406</v>
+      </c>
+      <c r="B414" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>001406</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" ht="14.25">
+      <c r="A415" s="2">
+        <v>1404</v>
+      </c>
+      <c r="B415" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>001404</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" ht="14.25">
+      <c r="A416" s="2">
+        <v>961</v>
+      </c>
+      <c r="B416" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>000961</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" ht="14.25">
+      <c r="A417" s="2">
+        <v>208</v>
+      </c>
+      <c r="B417" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>000208</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" ht="14.25">
+      <c r="A418" s="2">
+        <v>1002</v>
+      </c>
+      <c r="B418" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>001002</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" ht="14.25">
+      <c r="A419" s="2">
+        <v>287</v>
+      </c>
+      <c r="B419" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>000287</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" ht="14.25">
+      <c r="A420" s="2">
+        <v>475</v>
+      </c>
+      <c r="B420" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>000475</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" ht="14.25">
+      <c r="A421" s="2">
+        <v>305</v>
+      </c>
+      <c r="B421" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>000305</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" ht="14.25">
+      <c r="A422" s="34">
+        <v>1406</v>
+      </c>
+      <c r="B422" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>001406</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" ht="14.25">
+      <c r="A423" s="2">
+        <v>430</v>
+      </c>
+      <c r="B423" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>000430</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" ht="14.25">
+      <c r="A424" s="2">
+        <v>400</v>
+      </c>
+      <c r="B424" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>000400</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" ht="14.25">
+      <c r="A425" s="2">
+        <v>418</v>
+      </c>
+      <c r="B425" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>000418</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" ht="14.25">
+      <c r="A426" s="2">
+        <v>475</v>
+      </c>
+      <c r="B426" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>000475</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" ht="14.25">
+      <c r="A427" s="2">
+        <v>1404</v>
+      </c>
+      <c r="B427" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>001404</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" ht="14.25">
+      <c r="A428" s="2">
+        <v>681</v>
+      </c>
+      <c r="B428" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>000681</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" ht="14.25">
+      <c r="A429" s="2">
+        <v>162</v>
+      </c>
+      <c r="B429" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>000162</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" ht="14.25">
+      <c r="A430" s="2">
+        <v>1404</v>
+      </c>
+      <c r="B430" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>001404</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" ht="14.25">
+      <c r="A431" s="2">
+        <v>1181</v>
+      </c>
+      <c r="B431" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>001181</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" ht="14.25">
+      <c r="A432" s="2">
+        <v>1406</v>
+      </c>
+      <c r="B432" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>001406</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" ht="14.25">
+      <c r="A433" s="32">
+        <v>294</v>
+      </c>
+      <c r="B433" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>000294</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" ht="14.25">
+      <c r="A434" s="2">
+        <v>934</v>
+      </c>
+      <c r="B434" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>000934</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" ht="14.25">
+      <c r="A435" s="2">
+        <v>1181</v>
+      </c>
+      <c r="B435" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>001181</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" ht="14.25">
+      <c r="A436" s="32">
+        <v>1181</v>
+      </c>
+      <c r="B436" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>001181</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" ht="14.25">
+      <c r="A437" s="2">
+        <v>934</v>
+      </c>
+      <c r="B437" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>000934</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" ht="14.25">
+      <c r="A438" s="2">
+        <v>425</v>
+      </c>
+      <c r="B438" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>000425</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" ht="14.25">
+      <c r="A439" s="2">
+        <v>162</v>
+      </c>
+      <c r="B439" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>000162</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" ht="14.25">
+      <c r="A440" s="2">
+        <v>400</v>
+      </c>
+      <c r="B440" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>000400</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" ht="14.25">
+      <c r="A441" s="2">
+        <v>681</v>
+      </c>
+      <c r="B441" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>000681</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" ht="14.25">
+      <c r="A442" s="2">
+        <v>961</v>
+      </c>
+      <c r="B442" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>000961</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" ht="14.25">
+      <c r="A443" s="2">
+        <v>216</v>
+      </c>
+      <c r="B443" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>000216</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" ht="14.25">
+      <c r="A444" s="2">
+        <v>988</v>
+      </c>
+      <c r="B444" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>000988</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" ht="14.25">
+      <c r="A445" s="2">
+        <v>277</v>
+      </c>
+      <c r="B445" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>000277</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" ht="14.25">
+      <c r="A446" s="2">
+        <v>475</v>
+      </c>
+      <c r="B446" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>000475</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" ht="14.25">
+      <c r="A447" s="2">
+        <v>815</v>
+      </c>
+      <c r="B447" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>000815</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2" ht="14.25">
+      <c r="A448" s="2">
+        <v>418</v>
+      </c>
+      <c r="B448" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>000418</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" ht="14.25">
+      <c r="A449" s="2">
+        <v>162</v>
+      </c>
+      <c r="B449" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>000162</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" ht="14.25">
+      <c r="A450" s="2">
+        <v>162</v>
+      </c>
+      <c r="B450" s="5" t="str">
+        <f t="shared" ref="B450:B457" si="7">TEXT(A450,"000000")</f>
+        <v>000162</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" ht="14.25">
+      <c r="A451" s="2">
+        <v>400</v>
+      </c>
+      <c r="B451" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>000400</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2" ht="14.25">
+      <c r="A452" s="34">
+        <v>1406</v>
+      </c>
+      <c r="B452" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>001406</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2" ht="14.25">
+      <c r="A453" s="32">
+        <v>1634</v>
+      </c>
+      <c r="B453" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>001634</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2" ht="14.25">
+      <c r="A454" s="32">
+        <v>961</v>
+      </c>
+      <c r="B454" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>000961</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2" ht="14.25">
+      <c r="A455" s="32">
+        <v>1611</v>
+      </c>
+      <c r="B455" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>001611</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2" ht="14.25">
+      <c r="A456" s="32">
+        <v>1181</v>
+      </c>
+      <c r="B456" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>001181</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2" ht="14.25">
+      <c r="A457" s="32">
+        <v>1583</v>
+      </c>
+      <c r="B457" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>001583</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2">
+      <c r="A458" s="24"/>
+    </row>
+    <row r="459" spans="1:2">
+      <c r="A459" s="24"/>
+    </row>
+    <row r="460" spans="1:2">
+      <c r="A460" s="24"/>
+    </row>
+    <row r="461" spans="1:2">
+      <c r="A461" s="24"/>
+    </row>
+    <row r="462" spans="1:2">
+      <c r="A462" s="27"/>
+    </row>
+    <row r="463" spans="1:2">
+      <c r="A463" s="24"/>
+    </row>
+    <row r="464" spans="1:2">
+      <c r="A464" s="24"/>
+    </row>
+    <row r="465" spans="1:1">
+      <c r="A465" s="24"/>
+    </row>
+    <row r="466" spans="1:1">
+      <c r="A466" s="24"/>
+    </row>
+    <row r="467" spans="1:1">
+      <c r="A467" s="24"/>
+    </row>
+    <row r="468" spans="1:1">
+      <c r="A468" s="17">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="469" spans="1:1">
+      <c r="A469" s="13"/>
+    </row>
+    <row r="470" spans="1:1">
+      <c r="A470" s="13"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>